--- a/Bulk Loads/1223/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1223/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>89.2</v>
+        <v>109.2</v>
       </c>
       <c r="G9" s="6">
         <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G39" s="6">
         <f>IF(E39&gt;1,(1.732*D39*F39)/1000,(D39*F39)/1000)</f>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G44" s="6">
         <f>IF(E44&gt;1,(1.732*D44*F44)/1000,(D44*F44)/1000)</f>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G106" s="6">
         <f>IF(E106&gt;1,(1.732*D106*F106)/1000,(D106*F106)/1000)</f>
@@ -4670,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="5" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G186" s="6">
         <f>IF(E186&gt;1,(1.732*D186*F186)/1000,(D186*F186)/1000)</f>
@@ -6080,10 +6080,8 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="P244" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="P244" t="n">
+        <v>1000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -7328,15 +7326,11 @@
         <f>IF(E297&gt;1,(1.732*D297*F297)/1000,(D297*F297)/1000)</f>
         <v/>
       </c>
-      <c r="N297" t="inlineStr">
-        <is>
-          <t>3087</t>
-        </is>
-      </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>926EA</t>
-        </is>
+      <c r="N297" t="n">
+        <v>5586</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1676</v>
       </c>
       <c r="S297" t="inlineStr">
         <is>
@@ -7397,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="F300" s="5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G300" s="6">
         <f>IF(E300&gt;1,(1.732*D300*F300)/1000,(D300*F300)/1000)</f>
@@ -7431,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="F301" s="5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G301" s="6">
         <f>IF(E301&gt;1,(1.732*D301*F301)/1000,(D301*F301)/1000)</f>
@@ -7465,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="F302" s="5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G302" s="6">
         <f>IF(E302&gt;1,(1.732*D302*F302)/1000,(D302*F302)/1000)</f>
@@ -7481,10 +7475,8 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>(2)32000</t>
-        </is>
+      <c r="M302" t="n">
+        <v>64000</v>
       </c>
       <c r="S302" t="inlineStr">
         <is>
@@ -7511,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="F303" s="5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G303" s="6">
         <f>IF(E303&gt;1,(1.732*D303*F303)/1000,(D303*F303)/1000)</f>
@@ -7527,10 +7519,8 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="M303" t="inlineStr">
-        <is>
-          <t>(2)32000</t>
-        </is>
+      <c r="M303" t="n">
+        <v>64000</v>
       </c>
       <c r="S303" t="inlineStr">
         <is>
@@ -7874,15 +7864,11 @@
         <f>IF(E316&gt;1,(1.732*D316*F316)/1000,(D316*F316)/1000)</f>
         <v/>
       </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>3525</t>
-        </is>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>1058EA</t>
-        </is>
+      <c r="N316" t="n">
+        <v>5922</v>
+      </c>
+      <c r="O316" t="n">
+        <v>1777</v>
       </c>
       <c r="S316" t="inlineStr">
         <is>
@@ -7909,7 +7895,7 @@
         <v>1</v>
       </c>
       <c r="F317" s="5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G317" s="6">
         <f>IF(E317&gt;1,(1.732*D317*F317)/1000,(D317*F317)/1000)</f>
@@ -7943,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="F318" s="5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G318" s="6">
         <f>IF(E318&gt;1,(1.732*D318*F318)/1000,(D318*F318)/1000)</f>
@@ -7959,10 +7945,8 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="M318" t="inlineStr">
-        <is>
-          <t>(2)32000</t>
-        </is>
+      <c r="M318" t="n">
+        <v>64000</v>
       </c>
       <c r="S318" t="inlineStr">
         <is>
@@ -8029,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="F321" s="5" t="n">
-        <v>6.8</v>
+        <v>14.1</v>
       </c>
       <c r="G321" s="6">
         <f>IF(E321&gt;1,(1.732*D321*F321)/1000,(D321*F321)/1000)</f>
@@ -13234,10 +13218,8 @@
       <c r="N540" t="n">
         <v>3300</v>
       </c>
-      <c r="O540" t="inlineStr">
-        <is>
-          <t>990EA</t>
-        </is>
+      <c r="O540" t="n">
+        <v>990</v>
       </c>
       <c r="S540" t="inlineStr">
         <is>
@@ -13379,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="F546" s="5" t="n">
-        <v>6.8</v>
+        <v>14.1</v>
       </c>
       <c r="G546" s="6">
         <f>IF(E546&gt;1,(1.732*D546*F546)/1000,(D546*F546)/1000)</f>

--- a/Bulk Loads/1223/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/1223/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S773"/>
   <sheetViews>
@@ -499,6 +502,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -513,7 +517,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -668,7 +672,7 @@
         <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
         <v/>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="9" t="inlineStr">
         <is>
           <t>OUTDOOR AIR-COOLED ON EMERGENCY POWER</t>
         </is>
@@ -699,7 +703,7 @@
         <f>IF(E10&gt;1,(1.732*D10*F10)/1000,(D10*F10)/1000)</f>
         <v/>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>OUTDOOR AIR-COOLED ON EMERGENCY POWER</t>
         </is>
@@ -721,6 +725,7 @@
       </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="8" t="n"/>
+      <c r="S11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -738,6 +743,7 @@
       </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
+      <c r="S12" s="9" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -755,6 +761,7 @@
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
+      <c r="S13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -772,6 +779,7 @@
       </c>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="8" t="n"/>
+      <c r="S14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -789,6 +797,7 @@
       </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
+      <c r="S15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -806,6 +815,7 @@
       </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
+      <c r="S16" s="9" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
@@ -823,6 +833,7 @@
       </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
+      <c r="S17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -840,6 +851,7 @@
       </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
+      <c r="S18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -857,6 +869,7 @@
       </c>
       <c r="F19" s="7" t="n"/>
       <c r="G19" s="8" t="n"/>
+      <c r="S19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
@@ -872,6 +885,7 @@
       </c>
       <c r="F20" s="7" t="n"/>
       <c r="G20" s="8" t="n"/>
+      <c r="S20" s="9" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -887,6 +901,7 @@
       </c>
       <c r="F21" s="7" t="n"/>
       <c r="G21" s="8" t="n"/>
+      <c r="S21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -902,6 +917,7 @@
       </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
+      <c r="S22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -917,7 +933,7 @@
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
-      <c r="S23" t="inlineStr">
+      <c r="S23" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -939,6 +955,7 @@
       </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
+      <c r="S24" s="9" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -954,7 +971,7 @@
       </c>
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="8" t="n"/>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -974,7 +991,7 @@
       </c>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="8" t="n"/>
-      <c r="S26" t="inlineStr">
+      <c r="S26" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -1005,6 +1022,7 @@
         <f>IF(E27&gt;1,(1.732*D27*F27)/1000,(D27*F27)/1000)</f>
         <v/>
       </c>
+      <c r="S27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1022,6 +1040,7 @@
       </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
+      <c r="S28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1039,6 +1058,7 @@
       </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
+      <c r="S29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -1059,7 +1079,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S30" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1095,7 +1115,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1115,7 +1135,7 @@
       </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1135,7 +1155,7 @@
       </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="8" t="n"/>
-      <c r="S33" t="inlineStr">
+      <c r="S33" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -1157,6 +1177,7 @@
       </c>
       <c r="F34" s="7" t="n"/>
       <c r="G34" s="8" t="n"/>
+      <c r="S34" s="9" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -1188,7 +1209,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -1208,7 +1229,7 @@
       </c>
       <c r="F36" s="7" t="n"/>
       <c r="G36" s="8" t="n"/>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -1239,7 +1260,7 @@
         <f>IF(E37&gt;1,(1.732*D37*F37)/1000,(D37*F37)/1000)</f>
         <v/>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="S37" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED WITH UV HEPAC AND IONIZER</t>
         </is>
@@ -1261,6 +1282,7 @@
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="8" t="n"/>
+      <c r="S38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1278,6 +1300,7 @@
       </c>
       <c r="F39" s="7" t="n"/>
       <c r="G39" s="8" t="n"/>
+      <c r="S39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -1304,6 +1327,7 @@
         <f>IF(E40&gt;1,(1.732*D40*F40)/1000,(D40*F40)/1000)</f>
         <v/>
       </c>
+      <c r="S40" s="9" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -1330,6 +1354,7 @@
         <f>IF(E41&gt;1,(1.732*D41*F41)/1000,(D41*F41)/1000)</f>
         <v/>
       </c>
+      <c r="S41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
@@ -1350,7 +1375,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1386,7 +1411,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="S43" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1406,7 +1431,7 @@
       </c>
       <c r="F44" s="7" t="n"/>
       <c r="G44" s="8" t="n"/>
-      <c r="S44" t="inlineStr">
+      <c r="S44" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1428,6 +1453,7 @@
       </c>
       <c r="F45" s="7" t="n"/>
       <c r="G45" s="8" t="n"/>
+      <c r="S45" s="9" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -1454,6 +1480,7 @@
         <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
         <v/>
       </c>
+      <c r="S46" s="9" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -1480,6 +1507,7 @@
         <f>IF(E47&gt;1,(1.732*D47*F47)/1000,(D47*F47)/1000)</f>
         <v/>
       </c>
+      <c r="S47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -1500,7 +1528,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="S48" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1536,7 +1564,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="S49" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1558,6 +1586,7 @@
       </c>
       <c r="F50" s="7" t="n"/>
       <c r="G50" s="8" t="n"/>
+      <c r="S50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -1575,6 +1604,7 @@
       </c>
       <c r="F51" s="7" t="n"/>
       <c r="G51" s="8" t="n"/>
+      <c r="S51" s="9" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
@@ -1590,7 +1620,7 @@
       </c>
       <c r="F52" s="7" t="n"/>
       <c r="G52" s="8" t="n"/>
-      <c r="S52" t="inlineStr">
+      <c r="S52" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1621,6 +1651,7 @@
         <f>IF(E53&gt;1,(1.732*D53*F53)/1000,(D53*F53)/1000)</f>
         <v/>
       </c>
+      <c r="S53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -1641,7 +1672,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="S54" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1677,7 +1708,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="S55" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1699,6 +1730,7 @@
       </c>
       <c r="F56" s="7" t="n"/>
       <c r="G56" s="8" t="n"/>
+      <c r="S56" s="9" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -1714,7 +1746,7 @@
       </c>
       <c r="F57" s="7" t="n"/>
       <c r="G57" s="8" t="n"/>
-      <c r="S57" t="inlineStr">
+      <c r="S57" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1734,7 +1766,7 @@
       </c>
       <c r="F58" s="7" t="n"/>
       <c r="G58" s="8" t="n"/>
-      <c r="S58" t="inlineStr">
+      <c r="S58" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1765,6 +1797,7 @@
         <f>IF(E59&gt;1,(1.732*D59*F59)/1000,(D59*F59)/1000)</f>
         <v/>
       </c>
+      <c r="S59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -1782,6 +1815,7 @@
       </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="8" t="n"/>
+      <c r="S60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -1799,6 +1833,7 @@
       </c>
       <c r="F61" s="7" t="n"/>
       <c r="G61" s="8" t="n"/>
+      <c r="S61" s="9" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
@@ -1819,7 +1854,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="S62" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1855,7 +1890,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="S63" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1875,7 +1910,7 @@
       </c>
       <c r="F64" s="7" t="n"/>
       <c r="G64" s="8" t="n"/>
-      <c r="S64" t="inlineStr">
+      <c r="S64" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1897,6 +1932,7 @@
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="8" t="n"/>
+      <c r="S65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -1914,6 +1950,7 @@
       </c>
       <c r="F66" s="7" t="n"/>
       <c r="G66" s="8" t="n"/>
+      <c r="S66" s="9" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
@@ -1965,6 +2002,7 @@
         <f>IF(E68&gt;1,(1.732*D68*F68)/1000,(D68*F68)/1000)</f>
         <v/>
       </c>
+      <c r="S68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -1996,7 +2034,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="S69" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -2016,7 +2054,7 @@
       </c>
       <c r="F70" s="7" t="n"/>
       <c r="G70" s="8" t="n"/>
-      <c r="S70" t="inlineStr">
+      <c r="S70" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -2038,6 +2076,7 @@
       </c>
       <c r="F71" s="7" t="n"/>
       <c r="G71" s="8" t="n"/>
+      <c r="S71" s="9" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
@@ -2055,6 +2094,7 @@
       </c>
       <c r="F72" s="7" t="n"/>
       <c r="G72" s="8" t="n"/>
+      <c r="S72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="n">
@@ -2081,6 +2121,7 @@
         <f>IF(E73&gt;1,(1.732*D73*F73)/1000,(D73*F73)/1000)</f>
         <v/>
       </c>
+      <c r="S73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="n">
@@ -2101,7 +2142,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="S74" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2137,7 +2178,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="S75" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -2157,7 +2198,7 @@
       </c>
       <c r="F76" s="7" t="n"/>
       <c r="G76" s="8" t="n"/>
-      <c r="S76" t="inlineStr">
+      <c r="S76" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -2179,6 +2220,7 @@
       </c>
       <c r="F77" s="7" t="n"/>
       <c r="G77" s="8" t="n"/>
+      <c r="S77" s="9" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="n">
@@ -2212,7 +2254,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="S78" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -2232,7 +2274,7 @@
       </c>
       <c r="F79" s="7" t="n"/>
       <c r="G79" s="8" t="n"/>
-      <c r="S79" t="inlineStr">
+      <c r="S79" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2254,6 +2296,7 @@
       </c>
       <c r="F80" s="7" t="n"/>
       <c r="G80" s="8" t="n"/>
+      <c r="S80" s="9" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="n">
@@ -2271,6 +2314,7 @@
       </c>
       <c r="F81" s="7" t="n"/>
       <c r="G81" s="8" t="n"/>
+      <c r="S81" s="9" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="5" t="n">
@@ -2288,6 +2332,7 @@
       </c>
       <c r="F82" s="7" t="n"/>
       <c r="G82" s="8" t="n"/>
+      <c r="S82" s="9" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="n">
@@ -2314,7 +2359,7 @@
         <f>IF(E83&gt;1,(1.732*D83*F83)/1000,(D83*F83)/1000)</f>
         <v/>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="S83" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2334,7 +2379,7 @@
       </c>
       <c r="F84" s="7" t="n"/>
       <c r="G84" s="8" t="n"/>
-      <c r="S84" t="inlineStr">
+      <c r="S84" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2354,7 +2399,7 @@
       </c>
       <c r="F85" s="7" t="n"/>
       <c r="G85" s="8" t="n"/>
-      <c r="S85" t="inlineStr">
+      <c r="S85" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -2374,7 +2419,7 @@
       </c>
       <c r="F86" s="7" t="n"/>
       <c r="G86" s="8" t="n"/>
-      <c r="S86" t="inlineStr">
+      <c r="S86" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #91</t>
         </is>
@@ -2396,6 +2441,7 @@
       </c>
       <c r="F87" s="7" t="n"/>
       <c r="G87" s="8" t="n"/>
+      <c r="S87" s="9" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="n">
@@ -2422,6 +2468,7 @@
         <f>IF(E88&gt;1,(1.732*D88*F88)/1000,(D88*F88)/1000)</f>
         <v/>
       </c>
+      <c r="S88" s="9" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="n">
@@ -2448,7 +2495,7 @@
         <f>IF(E89&gt;1,(1.732*D89*F89)/1000,(D89*F89)/1000)</f>
         <v/>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="S89" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH CART</t>
         </is>
@@ -2468,7 +2515,7 @@
       </c>
       <c r="F90" s="7" t="n"/>
       <c r="G90" s="8" t="n"/>
-      <c r="S90" t="inlineStr">
+      <c r="S90" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -2490,6 +2537,7 @@
       </c>
       <c r="F91" s="7" t="n"/>
       <c r="G91" s="8" t="n"/>
+      <c r="S91" s="9" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="n">
@@ -2507,6 +2555,7 @@
       </c>
       <c r="F92" s="7" t="n"/>
       <c r="G92" s="8" t="n"/>
+      <c r="S92" s="9" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="n">
@@ -2522,7 +2571,7 @@
       </c>
       <c r="F93" s="7" t="n"/>
       <c r="G93" s="8" t="n"/>
-      <c r="S93" t="inlineStr">
+      <c r="S93" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #71</t>
         </is>
@@ -2553,7 +2602,7 @@
         <f>IF(E94&gt;1,(1.732*D94*F94)/1000,(D94*F94)/1000)</f>
         <v/>
       </c>
-      <c r="S94" t="inlineStr">
+      <c r="S94" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -2584,7 +2633,7 @@
         <f>IF(E95&gt;1,(1.732*D95*F95)/1000,(D95*F95)/1000)</f>
         <v/>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="S95" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2615,6 +2664,7 @@
         <f>IF(E96&gt;1,(1.732*D96*F96)/1000,(D96*F96)/1000)</f>
         <v/>
       </c>
+      <c r="S96" s="9" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="5" t="n">
@@ -2632,6 +2682,7 @@
       </c>
       <c r="F97" s="7" t="n"/>
       <c r="G97" s="8" t="n"/>
+      <c r="S97" s="9" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="n">
@@ -2658,6 +2709,7 @@
         <f>IF(E98&gt;1,(1.732*D98*F98)/1000,(D98*F98)/1000)</f>
         <v/>
       </c>
+      <c r="S98" s="9" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="n">
@@ -2673,7 +2725,7 @@
       </c>
       <c r="F99" s="7" t="n"/>
       <c r="G99" s="8" t="n"/>
-      <c r="S99" t="inlineStr">
+      <c r="S99" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2704,7 +2756,7 @@
         <f>IF(E100&gt;1,(1.732*D100*F100)/1000,(D100*F100)/1000)</f>
         <v/>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="S100" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -2726,6 +2778,7 @@
       </c>
       <c r="F101" s="7" t="n"/>
       <c r="G101" s="8" t="n"/>
+      <c r="S101" s="9" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="5" t="n">
@@ -2741,7 +2794,7 @@
       </c>
       <c r="F102" s="7" t="n"/>
       <c r="G102" s="8" t="n"/>
-      <c r="S102" t="inlineStr">
+      <c r="S102" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2790,7 +2843,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S103" t="inlineStr">
+      <c r="S103" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2810,7 +2863,7 @@
       </c>
       <c r="F104" s="7" t="n"/>
       <c r="G104" s="8" t="n"/>
-      <c r="S104" t="inlineStr">
+      <c r="S104" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2830,7 +2883,7 @@
       </c>
       <c r="F105" s="7" t="n"/>
       <c r="G105" s="8" t="n"/>
-      <c r="S105" t="inlineStr">
+      <c r="S105" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -2866,7 +2919,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr">
+      <c r="S106" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -2890,6 +2943,7 @@
       </c>
       <c r="F107" s="7" t="n"/>
       <c r="G107" s="8" t="n"/>
+      <c r="S107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
@@ -2941,6 +2995,7 @@
         <f>IF(E109&gt;1,(1.732*D109*F109)/1000,(D109*F109)/1000)</f>
         <v/>
       </c>
+      <c r="S109" s="9" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="5" t="n">
@@ -2967,6 +3022,7 @@
         <f>IF(E110&gt;1,(1.732*D110*F110)/1000,(D110*F110)/1000)</f>
         <v/>
       </c>
+      <c r="S110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="5" t="n">
@@ -2987,7 +3043,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr">
+      <c r="S111" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3023,7 +3079,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S112" t="inlineStr">
+      <c r="S112" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -3043,7 +3099,7 @@
       </c>
       <c r="F113" s="7" t="n"/>
       <c r="G113" s="8" t="n"/>
-      <c r="S113" t="inlineStr">
+      <c r="S113" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -3065,6 +3121,7 @@
       </c>
       <c r="F114" s="7" t="n"/>
       <c r="G114" s="8" t="n"/>
+      <c r="S114" s="9" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="5" t="n">
@@ -3085,7 +3142,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S115" t="inlineStr">
+      <c r="S115" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3134,7 +3191,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S116" t="inlineStr">
+      <c r="S116" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH MIXER RECESS</t>
         </is>
@@ -3154,7 +3211,7 @@
       </c>
       <c r="F117" s="7" t="n"/>
       <c r="G117" s="8" t="n"/>
-      <c r="S117" t="inlineStr">
+      <c r="S117" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3176,6 +3233,7 @@
       </c>
       <c r="F118" s="7" t="n"/>
       <c r="G118" s="8" t="n"/>
+      <c r="S118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="5" t="n">
@@ -3193,6 +3251,7 @@
       </c>
       <c r="F119" s="7" t="n"/>
       <c r="G119" s="8" t="n"/>
+      <c r="S119" s="9" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="5" t="n">
@@ -3208,7 +3267,7 @@
       </c>
       <c r="F120" s="7" t="n"/>
       <c r="G120" s="8" t="n"/>
-      <c r="S120" t="inlineStr">
+      <c r="S120" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -3239,7 +3298,7 @@
         <f>IF(E121&gt;1,(1.732*D121*F121)/1000,(D121*F121)/1000)</f>
         <v/>
       </c>
-      <c r="S121" t="inlineStr">
+      <c r="S121" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3259,7 +3318,7 @@
       </c>
       <c r="F122" s="7" t="n"/>
       <c r="G122" s="8" t="n"/>
-      <c r="S122" t="inlineStr">
+      <c r="S122" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #107</t>
         </is>
@@ -3290,7 +3349,7 @@
         <f>IF(E123&gt;1,(1.732*D123*F123)/1000,(D123*F123)/1000)</f>
         <v/>
       </c>
-      <c r="S123" t="inlineStr">
+      <c r="S123" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -3312,6 +3371,7 @@
       </c>
       <c r="F124" s="7" t="n"/>
       <c r="G124" s="8" t="n"/>
+      <c r="S124" s="9" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="5" t="n">
@@ -3338,7 +3398,7 @@
         <f>IF(E125&gt;1,(1.732*D125*F125)/1000,(D125*F125)/1000)</f>
         <v/>
       </c>
-      <c r="S125" t="inlineStr">
+      <c r="S125" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3369,6 +3429,7 @@
         <f>IF(E126&gt;1,(1.732*D126*F126)/1000,(D126*F126)/1000)</f>
         <v/>
       </c>
+      <c r="S126" s="9" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="5" t="n">
@@ -3386,6 +3447,7 @@
       </c>
       <c r="F127" s="7" t="n"/>
       <c r="G127" s="8" t="n"/>
+      <c r="S127" s="9" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="5" t="n">
@@ -3403,6 +3465,7 @@
       </c>
       <c r="F128" s="7" t="n"/>
       <c r="G128" s="8" t="n"/>
+      <c r="S128" s="9" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="5" t="n">
@@ -3420,6 +3483,7 @@
       </c>
       <c r="F129" s="7" t="n"/>
       <c r="G129" s="8" t="n"/>
+      <c r="S129" s="9" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="5" t="n">
@@ -3446,6 +3510,7 @@
         <f>IF(E130&gt;1,(1.732*D130*F130)/1000,(D130*F130)/1000)</f>
         <v/>
       </c>
+      <c r="S130" s="9" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="5" t="n">
@@ -3461,7 +3526,7 @@
       </c>
       <c r="F131" s="7" t="n"/>
       <c r="G131" s="8" t="n"/>
-      <c r="S131" t="inlineStr">
+      <c r="S131" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3483,6 +3548,7 @@
       </c>
       <c r="F132" s="7" t="n"/>
       <c r="G132" s="8" t="n"/>
+      <c r="S132" s="9" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="5" t="n">
@@ -3500,6 +3566,7 @@
       </c>
       <c r="F133" s="7" t="n"/>
       <c r="G133" s="8" t="n"/>
+      <c r="S133" s="9" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="5" t="n">
@@ -3517,6 +3584,7 @@
       </c>
       <c r="F134" s="7" t="n"/>
       <c r="G134" s="8" t="n"/>
+      <c r="S134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="5" t="n">
@@ -3548,7 +3616,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S135" t="inlineStr">
+      <c r="S135" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -3597,7 +3665,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S136" t="inlineStr">
+      <c r="S136" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3617,7 +3685,7 @@
       </c>
       <c r="F137" s="7" t="n"/>
       <c r="G137" s="8" t="n"/>
-      <c r="S137" t="inlineStr">
+      <c r="S137" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3639,6 +3707,7 @@
       </c>
       <c r="F138" s="7" t="n"/>
       <c r="G138" s="8" t="n"/>
+      <c r="S138" s="9" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="5" t="n">
@@ -3656,6 +3725,7 @@
       </c>
       <c r="F139" s="7" t="n"/>
       <c r="G139" s="8" t="n"/>
+      <c r="S139" s="9" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="5" t="n">
@@ -3682,6 +3752,7 @@
         <f>IF(E140&gt;1,(1.732*D140*F140)/1000,(D140*F140)/1000)</f>
         <v/>
       </c>
+      <c r="S140" s="9" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="5" t="n">
@@ -3708,6 +3779,7 @@
         <f>IF(E141&gt;1,(1.732*D141*F141)/1000,(D141*F141)/1000)</f>
         <v/>
       </c>
+      <c r="S141" s="9" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="5" t="n">
@@ -3723,7 +3795,7 @@
       </c>
       <c r="F142" s="7" t="n"/>
       <c r="G142" s="8" t="n"/>
-      <c r="S142" t="inlineStr">
+      <c r="S142" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -3761,7 +3833,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S143" t="inlineStr">
+      <c r="S143" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -3783,6 +3855,7 @@
       </c>
       <c r="F144" s="7" t="n"/>
       <c r="G144" s="8" t="n"/>
+      <c r="S144" s="9" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="5" t="n">
@@ -3798,7 +3871,7 @@
       </c>
       <c r="F145" s="7" t="n"/>
       <c r="G145" s="8" t="n"/>
-      <c r="S145" t="inlineStr">
+      <c r="S145" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3829,7 +3902,7 @@
         <f>IF(E146&gt;1,(1.732*D146*F146)/1000,(D146*F146)/1000)</f>
         <v/>
       </c>
-      <c r="S146" t="inlineStr">
+      <c r="S146" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -3849,7 +3922,7 @@
       </c>
       <c r="F147" s="7" t="n"/>
       <c r="G147" s="8" t="n"/>
-      <c r="S147" t="inlineStr">
+      <c r="S147" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3871,6 +3944,7 @@
       </c>
       <c r="F148" s="7" t="n"/>
       <c r="G148" s="8" t="n"/>
+      <c r="S148" s="9" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="5" t="inlineStr">
@@ -3890,6 +3964,7 @@
       </c>
       <c r="F149" s="7" t="n"/>
       <c r="G149" s="8" t="n"/>
+      <c r="S149" s="9" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="5" t="n">
@@ -3916,6 +3991,7 @@
         <f>IF(E150&gt;1,(1.732*D150*F150)/1000,(D150*F150)/1000)</f>
         <v/>
       </c>
+      <c r="S150" s="9" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="5" t="n">
@@ -3936,7 +4012,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S151" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3972,7 +4048,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="S152" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -3994,6 +4070,7 @@
       </c>
       <c r="F153" s="7" t="n"/>
       <c r="G153" s="8" t="n"/>
+      <c r="S153" s="9" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="5" t="n">
@@ -4011,6 +4088,7 @@
       </c>
       <c r="F154" s="7" t="n"/>
       <c r="G154" s="8" t="n"/>
+      <c r="S154" s="9" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="5" t="n">
@@ -4026,7 +4104,7 @@
       </c>
       <c r="F155" s="7" t="n"/>
       <c r="G155" s="8" t="n"/>
-      <c r="S155" t="inlineStr">
+      <c r="S155" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -4075,7 +4153,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S156" t="inlineStr">
+      <c r="S156" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4095,7 +4173,7 @@
       </c>
       <c r="F157" s="7" t="n"/>
       <c r="G157" s="8" t="n"/>
-      <c r="S157" t="inlineStr">
+      <c r="S157" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4115,7 +4193,7 @@
       </c>
       <c r="F158" s="7" t="n"/>
       <c r="G158" s="8" t="n"/>
-      <c r="S158" t="inlineStr">
+      <c r="S158" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #152</t>
         </is>
@@ -4137,6 +4215,7 @@
       </c>
       <c r="F159" s="7" t="n"/>
       <c r="G159" s="8" t="n"/>
+      <c r="S159" s="9" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="5" t="n">
@@ -4163,7 +4242,7 @@
         <f>IF(E160&gt;1,(1.732*D160*F160)/1000,(D160*F160)/1000)</f>
         <v/>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="S160" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -4194,6 +4273,7 @@
         <f>IF(E161&gt;1,(1.732*D161*F161)/1000,(D161*F161)/1000)</f>
         <v/>
       </c>
+      <c r="S161" s="9" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="5" t="n">
@@ -4209,7 +4289,7 @@
       </c>
       <c r="F162" s="7" t="n"/>
       <c r="G162" s="8" t="n"/>
-      <c r="S162" t="inlineStr">
+      <c r="S162" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -4231,6 +4311,7 @@
       </c>
       <c r="F163" s="7" t="n"/>
       <c r="G163" s="8" t="n"/>
+      <c r="S163" s="9" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="5" t="n">
@@ -4248,6 +4329,7 @@
       </c>
       <c r="F164" s="7" t="n"/>
       <c r="G164" s="8" t="n"/>
+      <c r="S164" s="9" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="5" t="n">
@@ -4274,7 +4356,7 @@
         <f>IF(E165&gt;1,(1.732*D165*F165)/1000,(D165*F165)/1000)</f>
         <v/>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="S165" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4294,7 +4376,7 @@
       </c>
       <c r="F166" s="7" t="n"/>
       <c r="G166" s="8" t="n"/>
-      <c r="S166" t="inlineStr">
+      <c r="S166" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4332,7 +4414,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S167" t="inlineStr">
+      <c r="S167" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -4352,7 +4434,7 @@
       </c>
       <c r="F168" s="7" t="n"/>
       <c r="G168" s="8" t="n"/>
-      <c r="S168" t="inlineStr">
+      <c r="S168" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -4374,6 +4456,7 @@
       </c>
       <c r="F169" s="7" t="n"/>
       <c r="G169" s="8" t="n"/>
+      <c r="S169" s="9" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="5" t="n">
@@ -4400,7 +4483,7 @@
         <f>IF(E170&gt;1,(1.732*D170*F170)/1000,(D170*F170)/1000)</f>
         <v/>
       </c>
-      <c r="S170" t="inlineStr">
+      <c r="S170" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -4431,7 +4514,7 @@
         <f>IF(E171&gt;1,(1.732*D171*F171)/1000,(D171*F171)/1000)</f>
         <v/>
       </c>
-      <c r="S171" t="inlineStr">
+      <c r="S171" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4451,7 +4534,7 @@
       </c>
       <c r="F172" s="7" t="n"/>
       <c r="G172" s="8" t="n"/>
-      <c r="S172" t="inlineStr">
+      <c r="S172" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4473,6 +4556,7 @@
       </c>
       <c r="F173" s="7" t="n"/>
       <c r="G173" s="8" t="n"/>
+      <c r="S173" s="9" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="5" t="n">
@@ -4490,6 +4574,7 @@
       </c>
       <c r="F174" s="7" t="n"/>
       <c r="G174" s="8" t="n"/>
+      <c r="S174" s="9" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="5" t="n">
@@ -4516,6 +4601,7 @@
         <f>IF(E175&gt;1,(1.732*D175*F175)/1000,(D175*F175)/1000)</f>
         <v/>
       </c>
+      <c r="S175" s="9" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="5" t="n">
@@ -4542,6 +4628,7 @@
         <f>IF(E176&gt;1,(1.732*D176*F176)/1000,(D176*F176)/1000)</f>
         <v/>
       </c>
+      <c r="S176" s="9" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="5" t="n">
@@ -4559,6 +4646,7 @@
       </c>
       <c r="F177" s="7" t="n"/>
       <c r="G177" s="8" t="n"/>
+      <c r="S177" s="9" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="5" t="n">
@@ -4576,6 +4664,7 @@
       </c>
       <c r="F178" s="7" t="n"/>
       <c r="G178" s="8" t="n"/>
+      <c r="S178" s="9" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="5" t="inlineStr">
@@ -4595,6 +4684,7 @@
       </c>
       <c r="F179" s="7" t="n"/>
       <c r="G179" s="8" t="n"/>
+      <c r="S179" s="9" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="5" t="n">
@@ -4612,6 +4702,7 @@
       </c>
       <c r="F180" s="7" t="n"/>
       <c r="G180" s="8" t="n"/>
+      <c r="S180" s="9" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="5" t="n">
@@ -4629,6 +4720,7 @@
       </c>
       <c r="F181" s="7" t="n"/>
       <c r="G181" s="8" t="n"/>
+      <c r="S181" s="9" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="5" t="n">
@@ -4646,6 +4738,7 @@
       </c>
       <c r="F182" s="7" t="n"/>
       <c r="G182" s="8" t="n"/>
+      <c r="S182" s="9" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="5" t="n">
@@ -4663,6 +4756,7 @@
       </c>
       <c r="F183" s="7" t="n"/>
       <c r="G183" s="8" t="n"/>
+      <c r="S183" s="9" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="5" t="n">
@@ -4680,6 +4774,7 @@
       </c>
       <c r="F184" s="7" t="n"/>
       <c r="G184" s="8" t="n"/>
+      <c r="S184" s="9" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="5" t="n">
@@ -4697,6 +4792,7 @@
       </c>
       <c r="F185" s="7" t="n"/>
       <c r="G185" s="8" t="n"/>
+      <c r="S185" s="9" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="5" t="n">
@@ -4714,6 +4810,7 @@
       </c>
       <c r="F186" s="7" t="n"/>
       <c r="G186" s="8" t="n"/>
+      <c r="S186" s="9" t="n"/>
     </row>
     <row r="187">
       <c r="A187" s="5" t="n">
@@ -4731,6 +4828,7 @@
       </c>
       <c r="F187" s="7" t="n"/>
       <c r="G187" s="8" t="n"/>
+      <c r="S187" s="9" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="5" t="n">
@@ -4748,6 +4846,7 @@
       </c>
       <c r="F188" s="7" t="n"/>
       <c r="G188" s="8" t="n"/>
+      <c r="S188" s="9" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="5" t="n">
@@ -4765,6 +4864,7 @@
       </c>
       <c r="F189" s="7" t="n"/>
       <c r="G189" s="8" t="n"/>
+      <c r="S189" s="9" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="5" t="n">
@@ -4791,6 +4891,7 @@
         <f>IF(E190&gt;1,(1.732*D190*F190)/1000,(D190*F190)/1000)</f>
         <v/>
       </c>
+      <c r="S190" s="9" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="5" t="n">
@@ -4817,6 +4918,7 @@
         <f>IF(E191&gt;1,(1.732*D191*F191)/1000,(D191*F191)/1000)</f>
         <v/>
       </c>
+      <c r="S191" s="9" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="5" t="n">
@@ -4837,7 +4939,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S192" t="inlineStr">
+      <c r="S192" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4873,7 +4975,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S193" t="inlineStr">
+      <c r="S193" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -4893,7 +4995,7 @@
       </c>
       <c r="F194" s="7" t="n"/>
       <c r="G194" s="8" t="n"/>
-      <c r="S194" t="inlineStr">
+      <c r="S194" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -4915,6 +5017,7 @@
       </c>
       <c r="F195" s="7" t="n"/>
       <c r="G195" s="8" t="n"/>
+      <c r="S195" s="9" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="5" t="n">
@@ -4930,7 +5033,7 @@
       </c>
       <c r="F196" s="7" t="n"/>
       <c r="G196" s="8" t="n"/>
-      <c r="S196" t="inlineStr">
+      <c r="S196" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4961,6 +5064,7 @@
         <f>IF(E197&gt;1,(1.732*D197*F197)/1000,(D197*F197)/1000)</f>
         <v/>
       </c>
+      <c r="S197" s="9" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="5" t="n">
@@ -4981,7 +5085,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S198" t="inlineStr">
+      <c r="S198" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5003,6 +5107,7 @@
       </c>
       <c r="F199" s="7" t="n"/>
       <c r="G199" s="8" t="n"/>
+      <c r="S199" s="9" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="5" t="n">
@@ -5020,6 +5125,7 @@
       </c>
       <c r="F200" s="7" t="n"/>
       <c r="G200" s="8" t="n"/>
+      <c r="S200" s="9" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="5" t="n">
@@ -5046,6 +5152,7 @@
         <f>IF(E201&gt;1,(1.732*D201*F201)/1000,(D201*F201)/1000)</f>
         <v/>
       </c>
+      <c r="S201" s="9" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="5" t="n">
@@ -5063,6 +5170,7 @@
       </c>
       <c r="F202" s="7" t="n"/>
       <c r="G202" s="8" t="n"/>
+      <c r="S202" s="9" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="5" t="n">
@@ -5080,6 +5188,7 @@
       </c>
       <c r="F203" s="7" t="n"/>
       <c r="G203" s="8" t="n"/>
+      <c r="S203" s="9" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="5" t="n">
@@ -5097,6 +5206,7 @@
       </c>
       <c r="F204" s="7" t="n"/>
       <c r="G204" s="8" t="n"/>
+      <c r="S204" s="9" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="5" t="n">
@@ -5114,6 +5224,7 @@
       </c>
       <c r="F205" s="7" t="n"/>
       <c r="G205" s="8" t="n"/>
+      <c r="S205" s="9" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="5" t="n">
@@ -5158,7 +5269,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S206" t="inlineStr">
+      <c r="S206" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5178,7 +5289,7 @@
       </c>
       <c r="F207" s="7" t="n"/>
       <c r="G207" s="8" t="n"/>
-      <c r="S207" t="inlineStr">
+      <c r="S207" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5198,7 +5309,7 @@
       </c>
       <c r="F208" s="7" t="n"/>
       <c r="G208" s="8" t="n"/>
-      <c r="S208" t="inlineStr">
+      <c r="S208" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -5220,6 +5331,7 @@
       </c>
       <c r="F209" s="7" t="n"/>
       <c r="G209" s="8" t="n"/>
+      <c r="S209" s="9" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="5" t="n">
@@ -5237,6 +5349,7 @@
       </c>
       <c r="F210" s="7" t="n"/>
       <c r="G210" s="8" t="n"/>
+      <c r="S210" s="9" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="5" t="n">
@@ -5252,7 +5365,7 @@
       </c>
       <c r="F211" s="7" t="n"/>
       <c r="G211" s="8" t="n"/>
-      <c r="S211" t="inlineStr">
+      <c r="S211" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #206</t>
         </is>
@@ -5283,6 +5396,7 @@
         <f>IF(E212&gt;1,(1.732*D212*F212)/1000,(D212*F212)/1000)</f>
         <v/>
       </c>
+      <c r="S212" s="9" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="5" t="n">
@@ -5309,6 +5423,7 @@
         <f>IF(E213&gt;1,(1.732*D213*F213)/1000,(D213*F213)/1000)</f>
         <v/>
       </c>
+      <c r="S213" s="9" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="5" t="n">
@@ -5335,6 +5450,7 @@
         <f>IF(E214&gt;1,(1.732*D214*F214)/1000,(D214*F214)/1000)</f>
         <v/>
       </c>
+      <c r="S214" s="9" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="5" t="n">
@@ -5352,6 +5468,7 @@
       </c>
       <c r="F215" s="7" t="n"/>
       <c r="G215" s="8" t="n"/>
+      <c r="S215" s="9" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="5" t="n">
@@ -5378,7 +5495,7 @@
         <f>IF(E216&gt;1,(1.732*D216*F216)/1000,(D216*F216)/1000)</f>
         <v/>
       </c>
-      <c r="S216" t="inlineStr">
+      <c r="S216" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -5416,7 +5533,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S217" t="inlineStr">
+      <c r="S217" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -5436,7 +5553,7 @@
       </c>
       <c r="F218" s="7" t="n"/>
       <c r="G218" s="8" t="n"/>
-      <c r="S218" t="inlineStr">
+      <c r="S218" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -5458,6 +5575,7 @@
       </c>
       <c r="F219" s="7" t="n"/>
       <c r="G219" s="8" t="n"/>
+      <c r="S219" s="9" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="5" t="inlineStr">
@@ -5477,6 +5595,7 @@
       </c>
       <c r="F220" s="7" t="n"/>
       <c r="G220" s="8" t="n"/>
+      <c r="S220" s="9" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
@@ -5522,7 +5641,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S222" t="inlineStr">
+      <c r="S222" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5542,7 +5661,7 @@
       </c>
       <c r="F223" s="7" t="n"/>
       <c r="G223" s="8" t="n"/>
-      <c r="S223" t="inlineStr">
+      <c r="S223" s="9" t="inlineStr">
         <is>
           <t>MOBILE FOUR TIER</t>
         </is>
@@ -5562,7 +5681,7 @@
       </c>
       <c r="F224" s="7" t="n"/>
       <c r="G224" s="8" t="n"/>
-      <c r="S224" t="inlineStr">
+      <c r="S224" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5584,6 +5703,7 @@
       </c>
       <c r="F225" s="7" t="n"/>
       <c r="G225" s="8" t="n"/>
+      <c r="S225" s="9" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="5" t="n">
@@ -5601,6 +5721,7 @@
       </c>
       <c r="F226" s="7" t="n"/>
       <c r="G226" s="8" t="n"/>
+      <c r="S226" s="9" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="5" t="n">
@@ -5616,7 +5737,7 @@
       </c>
       <c r="F227" s="7" t="n"/>
       <c r="G227" s="8" t="n"/>
-      <c r="S227" t="inlineStr">
+      <c r="S227" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -5662,7 +5783,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S228" t="inlineStr">
+      <c r="S228" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE</t>
         </is>
@@ -5690,7 +5811,7 @@
       <c r="N229" t="n">
         <v>600</v>
       </c>
-      <c r="S229" t="inlineStr">
+      <c r="S229" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5728,7 +5849,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S230" t="inlineStr">
+      <c r="S230" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5750,6 +5871,7 @@
       </c>
       <c r="F231" s="7" t="n"/>
       <c r="G231" s="8" t="n"/>
+      <c r="S231" s="9" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="5" t="n">
@@ -5765,7 +5887,7 @@
       </c>
       <c r="F232" s="7" t="n"/>
       <c r="G232" s="8" t="n"/>
-      <c r="S232" t="inlineStr">
+      <c r="S232" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5785,7 +5907,7 @@
       </c>
       <c r="F233" s="7" t="n"/>
       <c r="G233" s="8" t="n"/>
-      <c r="S233" t="inlineStr">
+      <c r="S233" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -5805,7 +5927,7 @@
       </c>
       <c r="F234" s="7" t="n"/>
       <c r="G234" s="8" t="n"/>
-      <c r="S234" t="inlineStr">
+      <c r="S234" s="9" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
         </is>
@@ -5827,6 +5949,7 @@
       </c>
       <c r="F235" s="7" t="n"/>
       <c r="G235" s="8" t="n"/>
+      <c r="S235" s="9" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="5" t="n">
@@ -5844,6 +5967,7 @@
       </c>
       <c r="F236" s="7" t="n"/>
       <c r="G236" s="8" t="n"/>
+      <c r="S236" s="9" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="5" t="n">
@@ -5872,7 +5996,7 @@
       <c r="J237" t="n">
         <v>25</v>
       </c>
-      <c r="S237" t="inlineStr">
+      <c r="S237" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #238</t>
         </is>
@@ -5910,7 +6034,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S238" t="inlineStr">
+      <c r="S238" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -5930,7 +6054,7 @@
       </c>
       <c r="F239" s="7" t="n"/>
       <c r="G239" s="8" t="n"/>
-      <c r="S239" t="inlineStr">
+      <c r="S239" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -5955,7 +6079,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S240" t="inlineStr">
+      <c r="S240" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5979,6 +6103,7 @@
       </c>
       <c r="F241" s="7" t="n"/>
       <c r="G241" s="8" t="n"/>
+      <c r="S241" s="9" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
@@ -6024,7 +6149,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S243" t="inlineStr">
+      <c r="S243" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6054,7 +6179,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S244" t="inlineStr">
+      <c r="S244" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #304</t>
         </is>
@@ -6084,7 +6209,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S245" t="inlineStr">
+      <c r="S245" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #307</t>
         </is>
@@ -6138,7 +6263,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S246" t="inlineStr">
+      <c r="S246" s="9" t="inlineStr">
         <is>
           <t>800LB. WATER-COOLED FLAKE ICE</t>
         </is>
@@ -6160,6 +6285,7 @@
       </c>
       <c r="F247" s="7" t="n"/>
       <c r="G247" s="8" t="n"/>
+      <c r="S247" s="9" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="5" t="n">
@@ -6180,7 +6306,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S248" t="inlineStr">
+      <c r="S248" s="9" t="inlineStr">
         <is>
           <t>1700LBS. WITH DIVIDER</t>
         </is>
@@ -6234,7 +6360,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S249" t="inlineStr">
+      <c r="S249" s="9" t="inlineStr">
         <is>
           <t>1400LB. WATER-COOLED CUBE ICE</t>
         </is>
@@ -6254,7 +6380,7 @@
       </c>
       <c r="F250" s="7" t="n"/>
       <c r="G250" s="8" t="n"/>
-      <c r="S250" t="inlineStr">
+      <c r="S250" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
         </is>
@@ -6276,6 +6402,7 @@
       </c>
       <c r="F251" s="7" t="n"/>
       <c r="G251" s="8" t="n"/>
+      <c r="S251" s="9" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="5" t="inlineStr">
@@ -6295,6 +6422,7 @@
       </c>
       <c r="F252" s="7" t="n"/>
       <c r="G252" s="8" t="n"/>
+      <c r="S252" s="9" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
@@ -6353,7 +6481,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S254" t="inlineStr">
+      <c r="S254" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -6373,7 +6501,7 @@
       </c>
       <c r="F255" s="7" t="n"/>
       <c r="G255" s="8" t="n"/>
-      <c r="S255" t="inlineStr">
+      <c r="S255" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -6404,7 +6532,7 @@
         <f>IF(E256&gt;1,(1.732*D256*F256)/1000,(D256*F256)/1000)</f>
         <v/>
       </c>
-      <c r="S256" t="inlineStr">
+      <c r="S256" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6426,6 +6554,7 @@
       </c>
       <c r="F257" s="7" t="n"/>
       <c r="G257" s="8" t="n"/>
+      <c r="S257" s="9" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="5" t="n">
@@ -6443,6 +6572,7 @@
       </c>
       <c r="F258" s="7" t="n"/>
       <c r="G258" s="8" t="n"/>
+      <c r="S258" s="9" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="5" t="n">
@@ -6458,7 +6588,7 @@
       </c>
       <c r="F259" s="7" t="n"/>
       <c r="G259" s="8" t="n"/>
-      <c r="S259" t="inlineStr">
+      <c r="S259" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6478,7 +6608,7 @@
       </c>
       <c r="F260" s="7" t="n"/>
       <c r="G260" s="8" t="n"/>
-      <c r="S260" t="inlineStr">
+      <c r="S260" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -6509,6 +6639,7 @@
         <f>IF(E261&gt;1,(1.732*D261*F261)/1000,(D261*F261)/1000)</f>
         <v/>
       </c>
+      <c r="S261" s="9" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="5" t="n">
@@ -6535,6 +6666,7 @@
         <f>IF(E262&gt;1,(1.732*D262*F262)/1000,(D262*F262)/1000)</f>
         <v/>
       </c>
+      <c r="S262" s="9" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="5" t="n">
@@ -6550,7 +6682,7 @@
       </c>
       <c r="F263" s="7" t="n"/>
       <c r="G263" s="8" t="n"/>
-      <c r="S263" t="inlineStr">
+      <c r="S263" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6570,7 +6702,7 @@
       </c>
       <c r="F264" s="7" t="n"/>
       <c r="G264" s="8" t="n"/>
-      <c r="S264" t="inlineStr">
+      <c r="S264" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -6590,7 +6722,7 @@
       </c>
       <c r="F265" s="7" t="n"/>
       <c r="G265" s="8" t="n"/>
-      <c r="S265" t="inlineStr">
+      <c r="S265" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6610,7 +6742,7 @@
       </c>
       <c r="F266" s="7" t="n"/>
       <c r="G266" s="8" t="n"/>
-      <c r="S266" t="inlineStr">
+      <c r="S266" s="9" t="inlineStr">
         <is>
           <t>MOBILE FOUR TIER</t>
         </is>
@@ -6632,6 +6764,7 @@
       </c>
       <c r="F267" s="7" t="n"/>
       <c r="G267" s="8" t="n"/>
+      <c r="S267" s="9" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="5" t="n">
@@ -6649,6 +6782,7 @@
       </c>
       <c r="F268" s="7" t="n"/>
       <c r="G268" s="8" t="n"/>
+      <c r="S268" s="9" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="5" t="n">
@@ -6693,7 +6827,7 @@
           <t>(3)1-1/2"</t>
         </is>
       </c>
-      <c r="S269" t="inlineStr">
+      <c r="S269" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6713,7 +6847,7 @@
       </c>
       <c r="F270" s="7" t="n"/>
       <c r="G270" s="8" t="n"/>
-      <c r="S270" t="inlineStr">
+      <c r="S270" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6733,7 +6867,7 @@
       </c>
       <c r="F271" s="7" t="n"/>
       <c r="G271" s="8" t="n"/>
-      <c r="S271" t="inlineStr">
+      <c r="S271" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -6753,7 +6887,7 @@
       </c>
       <c r="F272" s="7" t="n"/>
       <c r="G272" s="8" t="n"/>
-      <c r="S272" t="inlineStr">
+      <c r="S272" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -6775,6 +6909,7 @@
       </c>
       <c r="F273" s="7" t="n"/>
       <c r="G273" s="8" t="n"/>
+      <c r="S273" s="9" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="5" t="n">
@@ -6801,6 +6936,7 @@
         <f>IF(E274&gt;1,(1.732*D274*F274)/1000,(D274*F274)/1000)</f>
         <v/>
       </c>
+      <c r="S274" s="9" t="n"/>
     </row>
     <row r="275">
       <c r="A275" s="5" t="n">
@@ -6827,6 +6963,7 @@
         <f>IF(E275&gt;1,(1.732*D275*F275)/1000,(D275*F275)/1000)</f>
         <v/>
       </c>
+      <c r="S275" s="9" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="5" t="n">
@@ -6853,7 +6990,7 @@
         <f>IF(E276&gt;1,(1.732*D276*F276)/1000,(D276*F276)/1000)</f>
         <v/>
       </c>
-      <c r="S276" t="inlineStr">
+      <c r="S276" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6875,6 +7012,7 @@
       </c>
       <c r="F277" s="7" t="n"/>
       <c r="G277" s="8" t="n"/>
+      <c r="S277" s="9" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="5" t="n">
@@ -6892,6 +7030,7 @@
       </c>
       <c r="F278" s="7" t="n"/>
       <c r="G278" s="8" t="n"/>
+      <c r="S278" s="9" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="5" t="n">
@@ -6918,6 +7057,7 @@
         <f>IF(E279&gt;1,(1.732*D279*F279)/1000,(D279*F279)/1000)</f>
         <v/>
       </c>
+      <c r="S279" s="9" t="n"/>
     </row>
     <row r="280">
       <c r="A280" s="5" t="n">
@@ -6946,6 +7086,7 @@
       <c r="J280" t="n">
         <v>10</v>
       </c>
+      <c r="S280" s="9" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="5" t="n">
@@ -6972,6 +7113,7 @@
         <f>IF(E281&gt;1,(1.732*D281*F281)/1000,(D281*F281)/1000)</f>
         <v/>
       </c>
+      <c r="S281" s="9" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="5" t="n">
@@ -6987,7 +7129,7 @@
       </c>
       <c r="F282" s="7" t="n"/>
       <c r="G282" s="8" t="n"/>
-      <c r="S282" t="inlineStr">
+      <c r="S282" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7009,6 +7151,7 @@
       </c>
       <c r="F283" s="7" t="n"/>
       <c r="G283" s="8" t="n"/>
+      <c r="S283" s="9" t="n"/>
     </row>
     <row r="284">
       <c r="A284" s="5" t="n">
@@ -7042,7 +7185,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S284" t="inlineStr">
+      <c r="S284" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -7062,7 +7205,7 @@
       </c>
       <c r="F285" s="7" t="n"/>
       <c r="G285" s="8" t="n"/>
-      <c r="S285" t="inlineStr">
+      <c r="S285" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -7084,6 +7227,7 @@
       </c>
       <c r="F286" s="7" t="n"/>
       <c r="G286" s="8" t="n"/>
+      <c r="S286" s="9" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="5" t="n">
@@ -7101,6 +7245,7 @@
       </c>
       <c r="F287" s="7" t="n"/>
       <c r="G287" s="8" t="n"/>
+      <c r="S287" s="9" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="5" t="inlineStr">
@@ -7120,6 +7265,7 @@
       </c>
       <c r="F288" s="7" t="n"/>
       <c r="G288" s="8" t="n"/>
+      <c r="S288" s="9" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="3" t="inlineStr">
@@ -7189,7 +7335,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S290" t="inlineStr">
+      <c r="S290" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7209,7 +7355,7 @@
       </c>
       <c r="F291" s="7" t="n"/>
       <c r="G291" s="8" t="n"/>
-      <c r="S291" t="inlineStr">
+      <c r="S291" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #356</t>
         </is>
@@ -7229,7 +7375,7 @@
       </c>
       <c r="F292" s="7" t="n"/>
       <c r="G292" s="8" t="n"/>
-      <c r="S292" t="inlineStr">
+      <c r="S292" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -7251,6 +7397,7 @@
       </c>
       <c r="F293" s="7" t="n"/>
       <c r="G293" s="8" t="n"/>
+      <c r="S293" s="9" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="5" t="n">
@@ -7268,6 +7415,7 @@
       </c>
       <c r="F294" s="7" t="n"/>
       <c r="G294" s="8" t="n"/>
+      <c r="S294" s="9" t="n"/>
     </row>
     <row r="295">
       <c r="A295" s="5" t="n">
@@ -7283,7 +7431,7 @@
       </c>
       <c r="F295" s="7" t="n"/>
       <c r="G295" s="8" t="n"/>
-      <c r="S295" t="inlineStr">
+      <c r="S295" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7314,7 +7462,7 @@
         <f>IF(E296&gt;1,(1.732*D296*F296)/1000,(D296*F296)/1000)</f>
         <v/>
       </c>
-      <c r="S296" t="inlineStr">
+      <c r="S296" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7334,7 +7482,7 @@
       </c>
       <c r="F297" s="7" t="n"/>
       <c r="G297" s="8" t="n"/>
-      <c r="S297" t="inlineStr">
+      <c r="S297" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #362</t>
         </is>
@@ -7354,7 +7502,7 @@
       </c>
       <c r="F298" s="7" t="n"/>
       <c r="G298" s="8" t="n"/>
-      <c r="S298" t="inlineStr">
+      <c r="S298" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -7374,7 +7522,7 @@
       </c>
       <c r="F299" s="7" t="n"/>
       <c r="G299" s="8" t="n"/>
-      <c r="S299" t="inlineStr">
+      <c r="S299" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -7405,7 +7553,7 @@
         <f>IF(E300&gt;1,(1.732*D300*F300)/1000,(D300*F300)/1000)</f>
         <v/>
       </c>
-      <c r="S300" t="inlineStr">
+      <c r="S300" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #368 &amp; #391</t>
         </is>
@@ -7436,7 +7584,7 @@
         <f>IF(E301&gt;1,(1.732*D301*F301)/1000,(D301*F301)/1000)</f>
         <v/>
       </c>
-      <c r="S301" t="inlineStr">
+      <c r="S301" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #368</t>
         </is>
@@ -7473,7 +7621,7 @@
       <c r="O302" t="n">
         <v>1676</v>
       </c>
-      <c r="S302" t="inlineStr">
+      <c r="S302" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -7495,6 +7643,7 @@
       </c>
       <c r="F303" s="7" t="n"/>
       <c r="G303" s="8" t="n"/>
+      <c r="S303" s="9" t="n"/>
     </row>
     <row r="304">
       <c r="A304" s="5" t="n">
@@ -7512,6 +7661,7 @@
       </c>
       <c r="F304" s="7" t="n"/>
       <c r="G304" s="8" t="n"/>
+      <c r="S304" s="9" t="n"/>
     </row>
     <row r="305">
       <c r="A305" s="5" t="n">
@@ -7541,7 +7691,7 @@
       <c r="M305" t="n">
         <v>110000</v>
       </c>
-      <c r="S305" t="inlineStr">
+      <c r="S305" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7572,7 +7722,7 @@
         <f>IF(E306&gt;1,(1.732*D306*F306)/1000,(D306*F306)/1000)</f>
         <v/>
       </c>
-      <c r="S306" t="inlineStr">
+      <c r="S306" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7606,7 +7756,7 @@
       <c r="M307" t="n">
         <v>110000</v>
       </c>
-      <c r="S307" t="inlineStr">
+      <c r="S307" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7637,7 +7787,7 @@
         <f>IF(E308&gt;1,(1.732*D308*F308)/1000,(D308*F308)/1000)</f>
         <v/>
       </c>
-      <c r="S308" t="inlineStr">
+      <c r="S308" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7681,7 +7831,7 @@
       <c r="M309" t="n">
         <v>64000</v>
       </c>
-      <c r="S309" t="inlineStr">
+      <c r="S309" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH STAND</t>
         </is>
@@ -7722,7 +7872,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S310" t="inlineStr">
+      <c r="S310" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH STAND</t>
         </is>
@@ -7766,7 +7916,7 @@
       <c r="M311" t="n">
         <v>64000</v>
       </c>
-      <c r="S311" t="inlineStr">
+      <c r="S311" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH STAND</t>
         </is>
@@ -7807,7 +7957,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S312" t="inlineStr">
+      <c r="S312" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH STAND</t>
         </is>
@@ -7829,6 +7979,7 @@
       </c>
       <c r="F313" s="7" t="n"/>
       <c r="G313" s="8" t="n"/>
+      <c r="S313" s="9" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="5" t="n">
@@ -7847,7 +7998,7 @@
       <c r="M314" t="n">
         <v>180000</v>
       </c>
-      <c r="S314" t="inlineStr">
+      <c r="S314" s="9" t="inlineStr">
         <is>
           <t>W/ OVEN MOBILE</t>
         </is>
@@ -7880,6 +8031,7 @@
       <c r="J315" t="n">
         <v>30</v>
       </c>
+      <c r="S315" s="9" t="n"/>
     </row>
     <row r="316">
       <c r="A316" s="5" t="n">
@@ -7922,6 +8074,7 @@
       <c r="M316" t="n">
         <v>100000</v>
       </c>
+      <c r="S316" s="9" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="5" t="n">
@@ -7939,6 +8092,7 @@
       </c>
       <c r="F317" s="7" t="n"/>
       <c r="G317" s="8" t="n"/>
+      <c r="S317" s="9" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="5" t="n">
@@ -7956,6 +8110,7 @@
       </c>
       <c r="F318" s="7" t="n"/>
       <c r="G318" s="8" t="n"/>
+      <c r="S318" s="9" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="5" t="n">
@@ -7998,7 +8153,7 @@
       <c r="M319" t="n">
         <v>144000</v>
       </c>
-      <c r="S319" t="inlineStr">
+      <c r="S319" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -8023,7 +8178,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S320" t="inlineStr">
+      <c r="S320" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8054,7 +8209,7 @@
         <f>IF(E321&gt;1,(1.732*D321*F321)/1000,(D321*F321)/1000)</f>
         <v/>
       </c>
-      <c r="S321" t="inlineStr">
+      <c r="S321" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8074,7 +8229,7 @@
       </c>
       <c r="F322" s="7" t="n"/>
       <c r="G322" s="8" t="n"/>
-      <c r="S322" t="inlineStr">
+      <c r="S322" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8098,6 +8253,7 @@
       </c>
       <c r="F323" s="7" t="n"/>
       <c r="G323" s="8" t="n"/>
+      <c r="S323" s="9" t="n"/>
     </row>
     <row r="324">
       <c r="A324" s="3" t="inlineStr">
@@ -8155,7 +8311,7 @@
       <c r="O325" t="n">
         <v>1777</v>
       </c>
-      <c r="S325" t="inlineStr">
+      <c r="S325" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -8189,7 +8345,7 @@
       <c r="M326" t="n">
         <v>110000</v>
       </c>
-      <c r="S326" t="inlineStr">
+      <c r="S326" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8220,7 +8376,7 @@
         <f>IF(E327&gt;1,(1.732*D327*F327)/1000,(D327*F327)/1000)</f>
         <v/>
       </c>
-      <c r="S327" t="inlineStr">
+      <c r="S327" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8264,7 +8420,7 @@
       <c r="M328" t="n">
         <v>64000</v>
       </c>
-      <c r="S328" t="inlineStr">
+      <c r="S328" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH STAND</t>
         </is>
@@ -8305,7 +8461,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S329" t="inlineStr">
+      <c r="S329" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH STAND</t>
         </is>
@@ -8328,7 +8484,7 @@
       <c r="M330" t="n">
         <v>120000</v>
       </c>
-      <c r="S330" t="inlineStr">
+      <c r="S330" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH OVEN</t>
         </is>
@@ -8350,6 +8506,7 @@
       </c>
       <c r="F331" s="7" t="n"/>
       <c r="G331" s="8" t="n"/>
+      <c r="S331" s="9" t="n"/>
     </row>
     <row r="332">
       <c r="A332" s="5" t="n">
@@ -8379,7 +8536,7 @@
       <c r="M332" t="n">
         <v>280000</v>
       </c>
-      <c r="S332" t="inlineStr">
+      <c r="S332" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DUMP STATION</t>
         </is>
@@ -8410,7 +8567,7 @@
         <f>IF(E333&gt;1,(1.732*D333*F333)/1000,(D333*F333)/1000)</f>
         <v/>
       </c>
-      <c r="S333" t="inlineStr">
+      <c r="S333" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DUMP STATION</t>
         </is>
@@ -8430,6 +8587,7 @@
       </c>
       <c r="F334" s="7" t="n"/>
       <c r="G334" s="8" t="n"/>
+      <c r="S334" s="9" t="n"/>
     </row>
     <row r="335">
       <c r="A335" s="5" t="n">
@@ -8456,7 +8614,7 @@
         <f>IF(E335&gt;1,(1.732*D335*F335)/1000,(D335*F335)/1000)</f>
         <v/>
       </c>
-      <c r="S335" t="inlineStr">
+      <c r="S335" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8478,6 +8636,7 @@
       </c>
       <c r="F336" s="7" t="n"/>
       <c r="G336" s="8" t="n"/>
+      <c r="S336" s="9" t="n"/>
     </row>
     <row r="337">
       <c r="A337" s="5" t="n">
@@ -8495,6 +8654,7 @@
       </c>
       <c r="F337" s="7" t="n"/>
       <c r="G337" s="8" t="n"/>
+      <c r="S337" s="9" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="5" t="n">
@@ -8513,6 +8673,7 @@
       <c r="M338" t="n">
         <v>24000</v>
       </c>
+      <c r="S338" s="9" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="5" t="n">
@@ -8541,6 +8702,7 @@
       <c r="J339" t="n">
         <v>30</v>
       </c>
+      <c r="S339" s="9" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="5" t="n">
@@ -8559,6 +8721,7 @@
       <c r="M340" t="n">
         <v>90000</v>
       </c>
+      <c r="S340" s="9" t="n"/>
     </row>
     <row r="341">
       <c r="A341" s="5" t="n">
@@ -8577,7 +8740,7 @@
       <c r="M341" t="n">
         <v>90000</v>
       </c>
-      <c r="S341" t="inlineStr">
+      <c r="S341" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH OVEN</t>
         </is>
@@ -8599,6 +8762,7 @@
       </c>
       <c r="F342" s="7" t="n"/>
       <c r="G342" s="8" t="n"/>
+      <c r="S342" s="9" t="n"/>
     </row>
     <row r="343">
       <c r="A343" s="5" t="n">
@@ -8625,7 +8789,7 @@
         <f>IF(E343&gt;1,(1.732*D343*F343)/1000,(D343*F343)/1000)</f>
         <v/>
       </c>
-      <c r="S343" t="inlineStr">
+      <c r="S343" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #391</t>
         </is>
@@ -8645,7 +8809,7 @@
       </c>
       <c r="F344" s="7" t="n"/>
       <c r="G344" s="8" t="n"/>
-      <c r="S344" t="inlineStr">
+      <c r="S344" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8676,7 +8840,7 @@
         <f>IF(E345&gt;1,(1.732*D345*F345)/1000,(D345*F345)/1000)</f>
         <v/>
       </c>
-      <c r="S345" t="inlineStr">
+      <c r="S345" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8698,6 +8862,7 @@
       </c>
       <c r="F346" s="7" t="n"/>
       <c r="G346" s="8" t="n"/>
+      <c r="S346" s="9" t="n"/>
     </row>
     <row r="347">
       <c r="A347" s="5" t="n">
@@ -8715,6 +8880,7 @@
       </c>
       <c r="F347" s="7" t="n"/>
       <c r="G347" s="8" t="n"/>
+      <c r="S347" s="9" t="n"/>
     </row>
     <row r="348">
       <c r="A348" s="5" t="n">
@@ -8741,7 +8907,7 @@
         <f>IF(E348&gt;1,(1.732*D348*F348)/1000,(D348*F348)/1000)</f>
         <v/>
       </c>
-      <c r="S348" t="inlineStr">
+      <c r="S348" s="9" t="inlineStr">
         <is>
           <t>VENTLESS</t>
         </is>
@@ -8772,7 +8938,7 @@
         <f>IF(E349&gt;1,(1.732*D349*F349)/1000,(D349*F349)/1000)</f>
         <v/>
       </c>
-      <c r="S349" t="inlineStr">
+      <c r="S349" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8794,6 +8960,7 @@
       </c>
       <c r="F350" s="7" t="n"/>
       <c r="G350" s="8" t="n"/>
+      <c r="S350" s="9" t="n"/>
     </row>
     <row r="351">
       <c r="A351" s="5" t="n">
@@ -8811,6 +8978,7 @@
       </c>
       <c r="F351" s="7" t="n"/>
       <c r="G351" s="8" t="n"/>
+      <c r="S351" s="9" t="n"/>
     </row>
     <row r="352">
       <c r="A352" s="5" t="n">
@@ -8828,6 +8996,7 @@
       </c>
       <c r="F352" s="7" t="n"/>
       <c r="G352" s="8" t="n"/>
+      <c r="S352" s="9" t="n"/>
     </row>
     <row r="353">
       <c r="A353" s="3" t="inlineStr">
@@ -8879,7 +9048,7 @@
         <f>IF(E354&gt;1,(1.732*D354*F354)/1000,(D354*F354)/1000)</f>
         <v/>
       </c>
-      <c r="S354" t="inlineStr">
+      <c r="S354" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8928,7 +9097,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S355" t="inlineStr">
+      <c r="S355" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8966,7 +9135,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S356" t="inlineStr">
+      <c r="S356" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -8988,6 +9157,7 @@
       </c>
       <c r="F357" s="7" t="n"/>
       <c r="G357" s="8" t="n"/>
+      <c r="S357" s="9" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="5" t="n">
@@ -9005,6 +9175,7 @@
       </c>
       <c r="F358" s="7" t="n"/>
       <c r="G358" s="8" t="n"/>
+      <c r="S358" s="9" t="n"/>
     </row>
     <row r="359">
       <c r="A359" s="5" t="n">
@@ -9020,7 +9191,7 @@
       </c>
       <c r="F359" s="7" t="n"/>
       <c r="G359" s="8" t="n"/>
-      <c r="S359" t="inlineStr">
+      <c r="S359" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #417</t>
         </is>
@@ -9040,7 +9211,7 @@
       </c>
       <c r="F360" s="7" t="n"/>
       <c r="G360" s="8" t="n"/>
-      <c r="S360" t="inlineStr">
+      <c r="S360" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -9071,6 +9242,7 @@
         <f>IF(E361&gt;1,(1.732*D361*F361)/1000,(D361*F361)/1000)</f>
         <v/>
       </c>
+      <c r="S361" s="9" t="n"/>
     </row>
     <row r="362">
       <c r="A362" s="5" t="n">
@@ -9086,7 +9258,7 @@
       </c>
       <c r="F362" s="7" t="n"/>
       <c r="G362" s="8" t="n"/>
-      <c r="S362" t="inlineStr">
+      <c r="S362" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #417</t>
         </is>
@@ -9108,6 +9280,7 @@
       </c>
       <c r="F363" s="7" t="n"/>
       <c r="G363" s="8" t="n"/>
+      <c r="S363" s="9" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="5" t="n">
@@ -9134,7 +9307,7 @@
         <f>IF(E364&gt;1,(1.732*D364*F364)/1000,(D364*F364)/1000)</f>
         <v/>
       </c>
-      <c r="S364" t="inlineStr">
+      <c r="S364" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -9170,7 +9343,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S365" t="inlineStr">
+      <c r="S365" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS AND NSF7 RAIL PART OF ITEM#417</t>
         </is>
@@ -9190,7 +9363,7 @@
       </c>
       <c r="F366" s="7" t="n"/>
       <c r="G366" s="8" t="n"/>
-      <c r="S366" t="inlineStr">
+      <c r="S366" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #417</t>
         </is>
@@ -9212,6 +9385,7 @@
       </c>
       <c r="F367" s="7" t="n"/>
       <c r="G367" s="8" t="n"/>
+      <c r="S367" s="9" t="n"/>
     </row>
     <row r="368">
       <c r="A368" s="5" t="n">
@@ -9229,6 +9403,7 @@
       </c>
       <c r="F368" s="7" t="n"/>
       <c r="G368" s="8" t="n"/>
+      <c r="S368" s="9" t="n"/>
     </row>
     <row r="369">
       <c r="A369" s="5" t="n">
@@ -9255,6 +9430,7 @@
         <f>IF(E369&gt;1,(1.732*D369*F369)/1000,(D369*F369)/1000)</f>
         <v/>
       </c>
+      <c r="S369" s="9" t="n"/>
     </row>
     <row r="370">
       <c r="A370" s="5" t="n">
@@ -9291,7 +9467,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S370" t="inlineStr">
+      <c r="S370" s="9" t="inlineStr">
         <is>
           <t>3 WELL AUTOFILL</t>
         </is>
@@ -9322,6 +9498,7 @@
         <f>IF(E371&gt;1,(1.732*D371*F371)/1000,(D371*F371)/1000)</f>
         <v/>
       </c>
+      <c r="S371" s="9" t="n"/>
     </row>
     <row r="372">
       <c r="A372" s="5" t="n">
@@ -9337,7 +9514,7 @@
       </c>
       <c r="F372" s="7" t="n"/>
       <c r="G372" s="8" t="n"/>
-      <c r="S372" t="inlineStr">
+      <c r="S372" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #417</t>
         </is>
@@ -9359,6 +9536,7 @@
       </c>
       <c r="F373" s="7" t="n"/>
       <c r="G373" s="8" t="n"/>
+      <c r="S373" s="9" t="n"/>
     </row>
     <row r="374">
       <c r="A374" s="5" t="n">
@@ -9385,7 +9563,7 @@
         <f>IF(E374&gt;1,(1.732*D374*F374)/1000,(D374*F374)/1000)</f>
         <v/>
       </c>
-      <c r="S374" t="inlineStr">
+      <c r="S374" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -9410,7 +9588,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S375" t="inlineStr">
+      <c r="S375" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #417</t>
         </is>
@@ -9430,7 +9608,7 @@
       </c>
       <c r="F376" s="7" t="n"/>
       <c r="G376" s="8" t="n"/>
-      <c r="S376" t="inlineStr">
+      <c r="S376" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #417</t>
         </is>
@@ -9452,6 +9630,7 @@
       </c>
       <c r="F377" s="7" t="n"/>
       <c r="G377" s="8" t="n"/>
+      <c r="S377" s="9" t="n"/>
     </row>
     <row r="378">
       <c r="A378" s="5" t="n">
@@ -9469,6 +9648,7 @@
       </c>
       <c r="F378" s="7" t="n"/>
       <c r="G378" s="8" t="n"/>
+      <c r="S378" s="9" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="5" t="n">
@@ -9495,7 +9675,7 @@
         <f>IF(E379&gt;1,(1.732*D379*F379)/1000,(D379*F379)/1000)</f>
         <v/>
       </c>
-      <c r="S379" t="inlineStr">
+      <c r="S379" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9526,7 +9706,7 @@
         <f>IF(E380&gt;1,(1.732*D380*F380)/1000,(D380*F380)/1000)</f>
         <v/>
       </c>
-      <c r="S380" t="inlineStr">
+      <c r="S380" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -9557,7 +9737,7 @@
         <f>IF(E381&gt;1,(1.732*D381*F381)/1000,(D381*F381)/1000)</f>
         <v/>
       </c>
-      <c r="S381" t="inlineStr">
+      <c r="S381" s="9" t="inlineStr">
         <is>
           <t>MOBILE HEATED</t>
         </is>
@@ -9579,6 +9759,7 @@
       </c>
       <c r="F382" s="7" t="n"/>
       <c r="G382" s="8" t="n"/>
+      <c r="S382" s="9" t="n"/>
     </row>
     <row r="383">
       <c r="A383" s="5" t="n">
@@ -9596,6 +9777,7 @@
       </c>
       <c r="F383" s="7" t="n"/>
       <c r="G383" s="8" t="n"/>
+      <c r="S383" s="9" t="n"/>
     </row>
     <row r="384">
       <c r="A384" s="5" t="n">
@@ -9613,6 +9795,7 @@
       </c>
       <c r="F384" s="7" t="n"/>
       <c r="G384" s="8" t="n"/>
+      <c r="S384" s="9" t="n"/>
     </row>
     <row r="385">
       <c r="A385" s="5" t="n">
@@ -9657,7 +9840,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S385" t="inlineStr">
+      <c r="S385" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9695,7 +9878,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S386" t="inlineStr">
+      <c r="S386" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -9717,6 +9900,7 @@
       </c>
       <c r="F387" s="7" t="n"/>
       <c r="G387" s="8" t="n"/>
+      <c r="S387" s="9" t="n"/>
     </row>
     <row r="388">
       <c r="A388" s="5" t="n">
@@ -9734,6 +9918,7 @@
       </c>
       <c r="F388" s="7" t="n"/>
       <c r="G388" s="8" t="n"/>
+      <c r="S388" s="9" t="n"/>
     </row>
     <row r="389">
       <c r="A389" s="5" t="n">
@@ -9749,7 +9934,7 @@
       </c>
       <c r="F389" s="7" t="n"/>
       <c r="G389" s="8" t="n"/>
-      <c r="S389" t="inlineStr">
+      <c r="S389" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #447</t>
         </is>
@@ -9769,7 +9954,7 @@
       </c>
       <c r="F390" s="7" t="n"/>
       <c r="G390" s="8" t="n"/>
-      <c r="S390" t="inlineStr">
+      <c r="S390" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -9800,6 +9985,7 @@
         <f>IF(E391&gt;1,(1.732*D391*F391)/1000,(D391*F391)/1000)</f>
         <v/>
       </c>
+      <c r="S391" s="9" t="n"/>
     </row>
     <row r="392">
       <c r="A392" s="5" t="n">
@@ -9815,7 +10001,7 @@
       </c>
       <c r="F392" s="7" t="n"/>
       <c r="G392" s="8" t="n"/>
-      <c r="S392" t="inlineStr">
+      <c r="S392" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #447</t>
         </is>
@@ -9837,6 +10023,7 @@
       </c>
       <c r="F393" s="7" t="n"/>
       <c r="G393" s="8" t="n"/>
+      <c r="S393" s="9" t="n"/>
     </row>
     <row r="394">
       <c r="A394" s="5" t="n">
@@ -9863,7 +10050,7 @@
         <f>IF(E394&gt;1,(1.732*D394*F394)/1000,(D394*F394)/1000)</f>
         <v/>
       </c>
-      <c r="S394" t="inlineStr">
+      <c r="S394" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -9899,7 +10086,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S395" t="inlineStr">
+      <c r="S395" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS AND NSF7 RAIL PART OF ITEM #447</t>
         </is>
@@ -9919,7 +10106,7 @@
       </c>
       <c r="F396" s="7" t="n"/>
       <c r="G396" s="8" t="n"/>
-      <c r="S396" t="inlineStr">
+      <c r="S396" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #447</t>
         </is>
@@ -9941,6 +10128,7 @@
       </c>
       <c r="F397" s="7" t="n"/>
       <c r="G397" s="8" t="n"/>
+      <c r="S397" s="9" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="5" t="n">
@@ -9958,6 +10146,7 @@
       </c>
       <c r="F398" s="7" t="n"/>
       <c r="G398" s="8" t="n"/>
+      <c r="S398" s="9" t="n"/>
     </row>
     <row r="399">
       <c r="A399" s="5" t="n">
@@ -9984,6 +10173,7 @@
         <f>IF(E399&gt;1,(1.732*D399*F399)/1000,(D399*F399)/1000)</f>
         <v/>
       </c>
+      <c r="S399" s="9" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="5" t="n">
@@ -10020,7 +10210,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S400" t="inlineStr">
+      <c r="S400" s="9" t="inlineStr">
         <is>
           <t>3 WELL AUTOFILL</t>
         </is>
@@ -10051,6 +10241,7 @@
         <f>IF(E401&gt;1,(1.732*D401*F401)/1000,(D401*F401)/1000)</f>
         <v/>
       </c>
+      <c r="S401" s="9" t="n"/>
     </row>
     <row r="402">
       <c r="A402" s="5" t="n">
@@ -10066,7 +10257,7 @@
       </c>
       <c r="F402" s="7" t="n"/>
       <c r="G402" s="8" t="n"/>
-      <c r="S402" t="inlineStr">
+      <c r="S402" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #447</t>
         </is>
@@ -10088,6 +10279,7 @@
       </c>
       <c r="F403" s="7" t="n"/>
       <c r="G403" s="8" t="n"/>
+      <c r="S403" s="9" t="n"/>
     </row>
     <row r="404">
       <c r="A404" s="5" t="n">
@@ -10114,7 +10306,7 @@
         <f>IF(E404&gt;1,(1.732*D404*F404)/1000,(D404*F404)/1000)</f>
         <v/>
       </c>
-      <c r="S404" t="inlineStr">
+      <c r="S404" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -10139,7 +10331,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S405" t="inlineStr">
+      <c r="S405" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #447</t>
         </is>
@@ -10159,7 +10351,7 @@
       </c>
       <c r="F406" s="7" t="n"/>
       <c r="G406" s="8" t="n"/>
-      <c r="S406" t="inlineStr">
+      <c r="S406" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #447</t>
         </is>
@@ -10181,6 +10373,7 @@
       </c>
       <c r="F407" s="7" t="n"/>
       <c r="G407" s="8" t="n"/>
+      <c r="S407" s="9" t="n"/>
     </row>
     <row r="408">
       <c r="A408" s="5" t="n">
@@ -10198,6 +10391,7 @@
       </c>
       <c r="F408" s="7" t="n"/>
       <c r="G408" s="8" t="n"/>
+      <c r="S408" s="9" t="n"/>
     </row>
     <row r="409">
       <c r="A409" s="5" t="n">
@@ -10224,7 +10418,7 @@
         <f>IF(E409&gt;1,(1.732*D409*F409)/1000,(D409*F409)/1000)</f>
         <v/>
       </c>
-      <c r="S409" t="inlineStr">
+      <c r="S409" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #447</t>
         </is>
@@ -10255,7 +10449,7 @@
         <f>IF(E410&gt;1,(1.732*D410*F410)/1000,(D410*F410)/1000)</f>
         <v/>
       </c>
-      <c r="S410" t="inlineStr">
+      <c r="S410" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -10286,7 +10480,7 @@
         <f>IF(E411&gt;1,(1.732*D411*F411)/1000,(D411*F411)/1000)</f>
         <v/>
       </c>
-      <c r="S411" t="inlineStr">
+      <c r="S411" s="9" t="inlineStr">
         <is>
           <t>MOBILE HEATED</t>
         </is>
@@ -10306,7 +10500,7 @@
       </c>
       <c r="F412" s="7" t="n"/>
       <c r="G412" s="8" t="n"/>
-      <c r="S412" t="inlineStr">
+      <c r="S412" s="9" t="inlineStr">
         <is>
           <t>MOBILE PASS-THRU</t>
         </is>
@@ -10328,6 +10522,7 @@
       </c>
       <c r="F413" s="7" t="n"/>
       <c r="G413" s="8" t="n"/>
+      <c r="S413" s="9" t="n"/>
     </row>
     <row r="414">
       <c r="A414" s="5" t="n">
@@ -10354,7 +10549,7 @@
         <f>IF(E414&gt;1,(1.732*D414*F414)/1000,(D414*F414)/1000)</f>
         <v/>
       </c>
-      <c r="S414" t="inlineStr">
+      <c r="S414" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10385,7 +10580,7 @@
         <f>IF(E415&gt;1,(1.732*D415*F415)/1000,(D415*F415)/1000)</f>
         <v/>
       </c>
-      <c r="S415" t="inlineStr">
+      <c r="S415" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10416,7 +10611,7 @@
         <f>IF(E416&gt;1,(1.732*D416*F416)/1000,(D416*F416)/1000)</f>
         <v/>
       </c>
-      <c r="S416" t="inlineStr">
+      <c r="S416" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10438,6 +10633,7 @@
       </c>
       <c r="F417" s="7" t="n"/>
       <c r="G417" s="8" t="n"/>
+      <c r="S417" s="9" t="n"/>
     </row>
     <row r="418">
       <c r="A418" s="5" t="n">
@@ -10455,6 +10651,7 @@
       </c>
       <c r="F418" s="7" t="n"/>
       <c r="G418" s="8" t="n"/>
+      <c r="S418" s="9" t="n"/>
     </row>
     <row r="419">
       <c r="A419" s="5" t="n">
@@ -10470,7 +10667,7 @@
       </c>
       <c r="F419" s="7" t="n"/>
       <c r="G419" s="8" t="n"/>
-      <c r="S419" t="inlineStr">
+      <c r="S419" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10509,7 +10706,7 @@
       <c r="J420" t="n">
         <v>5</v>
       </c>
-      <c r="S420" t="inlineStr">
+      <c r="S420" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -10545,7 +10742,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S421" t="inlineStr">
+      <c r="S421" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -10584,7 +10781,7 @@
       <c r="J422" t="n">
         <v>5</v>
       </c>
-      <c r="S422" t="inlineStr">
+      <c r="S422" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -10606,6 +10803,7 @@
       </c>
       <c r="F423" s="7" t="n"/>
       <c r="G423" s="8" t="n"/>
+      <c r="S423" s="9" t="n"/>
     </row>
     <row r="424">
       <c r="A424" s="5" t="n">
@@ -10637,7 +10835,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S424" t="inlineStr">
+      <c r="S424" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -10681,7 +10879,7 @@
       <c r="P425" t="n">
         <v>7900</v>
       </c>
-      <c r="S425" t="inlineStr">
+      <c r="S425" s="9" t="inlineStr">
         <is>
           <t>500LBS. AIR-COOLED</t>
         </is>
@@ -10711,7 +10909,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S426" t="inlineStr">
+      <c r="S426" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #487</t>
         </is>
@@ -10733,6 +10931,7 @@
       </c>
       <c r="F427" s="7" t="n"/>
       <c r="G427" s="8" t="n"/>
+      <c r="S427" s="9" t="n"/>
     </row>
     <row r="428">
       <c r="A428" s="5" t="n">
@@ -10750,6 +10949,7 @@
       </c>
       <c r="F428" s="7" t="n"/>
       <c r="G428" s="8" t="n"/>
+      <c r="S428" s="9" t="n"/>
     </row>
     <row r="429">
       <c r="A429" s="5" t="n">
@@ -10776,7 +10976,7 @@
         <f>IF(E429&gt;1,(1.732*D429*F429)/1000,(D429*F429)/1000)</f>
         <v/>
       </c>
-      <c r="S429" t="inlineStr">
+      <c r="S429" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10807,7 +11007,7 @@
         <f>IF(E430&gt;1,(1.732*D430*F430)/1000,(D430*F430)/1000)</f>
         <v/>
       </c>
-      <c r="S430" t="inlineStr">
+      <c r="S430" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10845,7 +11045,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S431" t="inlineStr">
+      <c r="S431" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -10865,7 +11065,7 @@
       </c>
       <c r="F432" s="7" t="n"/>
       <c r="G432" s="8" t="n"/>
-      <c r="S432" t="inlineStr">
+      <c r="S432" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -10887,6 +11087,7 @@
       </c>
       <c r="F433" s="7" t="n"/>
       <c r="G433" s="8" t="n"/>
+      <c r="S433" s="9" t="n"/>
     </row>
     <row r="434">
       <c r="A434" s="5" t="n">
@@ -10902,7 +11103,7 @@
       </c>
       <c r="F434" s="7" t="n"/>
       <c r="G434" s="8" t="n"/>
-      <c r="S434" t="inlineStr">
+      <c r="S434" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10933,7 +11134,7 @@
         <f>IF(E435&gt;1,(1.732*D435*F435)/1000,(D435*F435)/1000)</f>
         <v/>
       </c>
-      <c r="S435" t="inlineStr">
+      <c r="S435" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED WITH UV HEPAC AND IONIZER</t>
         </is>
@@ -10955,6 +11156,7 @@
       </c>
       <c r="F436" s="7" t="n"/>
       <c r="G436" s="8" t="n"/>
+      <c r="S436" s="9" t="n"/>
     </row>
     <row r="437">
       <c r="A437" s="5" t="n">
@@ -10972,6 +11174,7 @@
       </c>
       <c r="F437" s="7" t="n"/>
       <c r="G437" s="8" t="n"/>
+      <c r="S437" s="9" t="n"/>
     </row>
     <row r="438">
       <c r="A438" s="5" t="n">
@@ -10989,6 +11192,7 @@
       </c>
       <c r="F438" s="7" t="n"/>
       <c r="G438" s="8" t="n"/>
+      <c r="S438" s="9" t="n"/>
     </row>
     <row r="439">
       <c r="A439" s="3" t="inlineStr">
@@ -11029,7 +11233,7 @@
       </c>
       <c r="F440" s="7" t="n"/>
       <c r="G440" s="8" t="n"/>
-      <c r="S440" t="inlineStr">
+      <c r="S440" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -11049,7 +11253,7 @@
       </c>
       <c r="F441" s="7" t="n"/>
       <c r="G441" s="8" t="n"/>
-      <c r="S441" t="inlineStr">
+      <c r="S441" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -11074,7 +11278,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S442" t="inlineStr">
+      <c r="S442" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -11104,7 +11308,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S443" t="inlineStr">
+      <c r="S443" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -11126,6 +11330,7 @@
       </c>
       <c r="F444" s="7" t="n"/>
       <c r="G444" s="8" t="n"/>
+      <c r="S444" s="9" t="n"/>
     </row>
     <row r="445">
       <c r="A445" s="5" t="n">
@@ -11141,7 +11346,7 @@
       </c>
       <c r="F445" s="7" t="n"/>
       <c r="G445" s="8" t="n"/>
-      <c r="S445" t="inlineStr">
+      <c r="S445" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11172,7 +11377,7 @@
         <f>IF(E446&gt;1,(1.732*D446*F446)/1000,(D446*F446)/1000)</f>
         <v/>
       </c>
-      <c r="S446" t="inlineStr">
+      <c r="S446" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED WITH UV HEPAC AND IONIZER</t>
         </is>
@@ -11194,6 +11399,7 @@
       </c>
       <c r="F447" s="7" t="n"/>
       <c r="G447" s="8" t="n"/>
+      <c r="S447" s="9" t="n"/>
     </row>
     <row r="448">
       <c r="A448" s="5" t="n">
@@ -11211,6 +11417,7 @@
       </c>
       <c r="F448" s="7" t="n"/>
       <c r="G448" s="8" t="n"/>
+      <c r="S448" s="9" t="n"/>
     </row>
     <row r="449">
       <c r="A449" s="5" t="n">
@@ -11228,6 +11435,7 @@
       </c>
       <c r="F449" s="7" t="n"/>
       <c r="G449" s="8" t="n"/>
+      <c r="S449" s="9" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="3" t="inlineStr">
@@ -11279,6 +11487,7 @@
         <f>IF(E451&gt;1,(1.732*D451*F451)/1000,(D451*F451)/1000)</f>
         <v/>
       </c>
+      <c r="S451" s="9" t="n"/>
     </row>
     <row r="452">
       <c r="A452" s="5" t="n">
@@ -11299,7 +11508,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S452" t="inlineStr">
+      <c r="S452" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11335,7 +11544,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S453" t="inlineStr">
+      <c r="S453" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -11355,7 +11564,7 @@
       </c>
       <c r="F454" s="7" t="n"/>
       <c r="G454" s="8" t="n"/>
-      <c r="S454" t="inlineStr">
+      <c r="S454" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -11377,6 +11586,7 @@
       </c>
       <c r="F455" s="7" t="n"/>
       <c r="G455" s="8" t="n"/>
+      <c r="S455" s="9" t="n"/>
     </row>
     <row r="456">
       <c r="A456" s="5" t="n">
@@ -11392,7 +11602,7 @@
       </c>
       <c r="F456" s="7" t="n"/>
       <c r="G456" s="8" t="n"/>
-      <c r="S456" t="inlineStr">
+      <c r="S456" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -11412,7 +11622,7 @@
       </c>
       <c r="F457" s="7" t="n"/>
       <c r="G457" s="8" t="n"/>
-      <c r="S457" t="inlineStr">
+      <c r="S457" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11432,7 +11642,7 @@
       </c>
       <c r="F458" s="7" t="n"/>
       <c r="G458" s="8" t="n"/>
-      <c r="S458" t="inlineStr">
+      <c r="S458" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #517</t>
         </is>
@@ -11454,6 +11664,7 @@
       </c>
       <c r="F459" s="7" t="n"/>
       <c r="G459" s="8" t="n"/>
+      <c r="S459" s="9" t="n"/>
     </row>
     <row r="460">
       <c r="A460" s="5" t="n">
@@ -11471,6 +11682,7 @@
       </c>
       <c r="F460" s="7" t="n"/>
       <c r="G460" s="8" t="n"/>
+      <c r="S460" s="9" t="n"/>
     </row>
     <row r="461">
       <c r="A461" s="5" t="n">
@@ -11486,7 +11698,7 @@
       </c>
       <c r="F461" s="7" t="n"/>
       <c r="G461" s="8" t="n"/>
-      <c r="S461" t="inlineStr">
+      <c r="S461" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11506,7 +11718,7 @@
       </c>
       <c r="F462" s="7" t="n"/>
       <c r="G462" s="8" t="n"/>
-      <c r="S462" t="inlineStr">
+      <c r="S462" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -11526,7 +11738,7 @@
       </c>
       <c r="F463" s="7" t="n"/>
       <c r="G463" s="8" t="n"/>
-      <c r="S463" t="inlineStr">
+      <c r="S463" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -11575,7 +11787,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S464" t="inlineStr">
+      <c r="S464" s="9" t="inlineStr">
         <is>
           <t>WITH COVER</t>
         </is>
@@ -11597,6 +11809,7 @@
       </c>
       <c r="F465" s="7" t="n"/>
       <c r="G465" s="8" t="n"/>
+      <c r="S465" s="9" t="n"/>
     </row>
     <row r="466">
       <c r="A466" s="5" t="n">
@@ -11612,7 +11825,7 @@
       </c>
       <c r="F466" s="7" t="n"/>
       <c r="G466" s="8" t="n"/>
-      <c r="S466" t="inlineStr">
+      <c r="S466" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11664,7 +11877,7 @@
       <c r="P467" t="n">
         <v>7200</v>
       </c>
-      <c r="S467" t="inlineStr">
+      <c r="S467" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -11702,7 +11915,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S468" t="inlineStr">
+      <c r="S468" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -11724,6 +11937,7 @@
       </c>
       <c r="F469" s="7" t="n"/>
       <c r="G469" s="8" t="n"/>
+      <c r="S469" s="9" t="n"/>
     </row>
     <row r="470">
       <c r="A470" s="5" t="n">
@@ -11741,6 +11955,7 @@
       </c>
       <c r="F470" s="7" t="n"/>
       <c r="G470" s="8" t="n"/>
+      <c r="S470" s="9" t="n"/>
     </row>
     <row r="471">
       <c r="A471" s="5" t="n">
@@ -11756,7 +11971,7 @@
       </c>
       <c r="F471" s="7" t="n"/>
       <c r="G471" s="8" t="n"/>
-      <c r="S471" t="inlineStr">
+      <c r="S471" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -11794,6 +12009,7 @@
           <t>1-1/4"</t>
         </is>
       </c>
+      <c r="S472" s="9" t="n"/>
     </row>
     <row r="473">
       <c r="A473" s="5" t="n">
@@ -11811,6 +12027,7 @@
       </c>
       <c r="F473" s="7" t="n"/>
       <c r="G473" s="8" t="n"/>
+      <c r="S473" s="9" t="n"/>
     </row>
     <row r="474">
       <c r="A474" s="5" t="n">
@@ -11828,6 +12045,7 @@
       </c>
       <c r="F474" s="7" t="n"/>
       <c r="G474" s="8" t="n"/>
+      <c r="S474" s="9" t="n"/>
     </row>
     <row r="475">
       <c r="A475" s="5" t="n">
@@ -11845,6 +12063,7 @@
       </c>
       <c r="F475" s="7" t="n"/>
       <c r="G475" s="8" t="n"/>
+      <c r="S475" s="9" t="n"/>
     </row>
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
@@ -11885,6 +12104,7 @@
       </c>
       <c r="F477" s="7" t="n"/>
       <c r="G477" s="8" t="n"/>
+      <c r="S477" s="9" t="n"/>
     </row>
     <row r="478">
       <c r="A478" s="5" t="n">
@@ -11905,7 +12125,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S478" t="inlineStr">
+      <c r="S478" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11943,7 +12163,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S479" t="inlineStr">
+      <c r="S479" s="9" t="inlineStr">
         <is>
           <t>HOT &amp; COLD WATER</t>
         </is>
@@ -11965,6 +12185,7 @@
       </c>
       <c r="F480" s="7" t="n"/>
       <c r="G480" s="8" t="n"/>
+      <c r="S480" s="9" t="n"/>
     </row>
     <row r="481">
       <c r="A481" s="5" t="n">
@@ -11982,6 +12203,7 @@
       </c>
       <c r="F481" s="7" t="n"/>
       <c r="G481" s="8" t="n"/>
+      <c r="S481" s="9" t="n"/>
     </row>
     <row r="482">
       <c r="A482" s="5" t="n">
@@ -12002,7 +12224,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S482" t="inlineStr">
+      <c r="S482" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -12022,6 +12244,7 @@
       </c>
       <c r="F483" s="7" t="n"/>
       <c r="G483" s="8" t="n"/>
+      <c r="S483" s="9" t="n"/>
     </row>
     <row r="484">
       <c r="A484" s="5" t="n">
@@ -12039,6 +12262,7 @@
       </c>
       <c r="F484" s="7" t="n"/>
       <c r="G484" s="8" t="n"/>
+      <c r="S484" s="9" t="n"/>
     </row>
     <row r="485">
       <c r="A485" s="5" t="n">
@@ -12056,6 +12280,7 @@
       </c>
       <c r="F485" s="7" t="n"/>
       <c r="G485" s="8" t="n"/>
+      <c r="S485" s="9" t="n"/>
     </row>
     <row r="486">
       <c r="A486" s="5" t="n">
@@ -12073,6 +12298,7 @@
       </c>
       <c r="F486" s="7" t="n"/>
       <c r="G486" s="8" t="n"/>
+      <c r="S486" s="9" t="n"/>
     </row>
     <row r="487">
       <c r="A487" s="5" t="n">
@@ -12106,6 +12332,7 @@
           <t>1-1/4"</t>
         </is>
       </c>
+      <c r="S487" s="9" t="n"/>
     </row>
     <row r="488">
       <c r="A488" s="5" t="n">
@@ -12139,7 +12366,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S488" t="inlineStr">
+      <c r="S488" s="9" t="inlineStr">
         <is>
           <t>WITH VENDOR PROVIDED SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -12159,7 +12386,7 @@
       </c>
       <c r="F489" s="7" t="n"/>
       <c r="G489" s="8" t="n"/>
-      <c r="S489" t="inlineStr">
+      <c r="S489" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -12181,6 +12408,7 @@
       </c>
       <c r="F490" s="7" t="n"/>
       <c r="G490" s="8" t="n"/>
+      <c r="S490" s="9" t="n"/>
     </row>
     <row r="491">
       <c r="A491" s="5" t="n">
@@ -12198,6 +12426,7 @@
       </c>
       <c r="F491" s="7" t="n"/>
       <c r="G491" s="8" t="n"/>
+      <c r="S491" s="9" t="n"/>
     </row>
     <row r="492">
       <c r="A492" s="5" t="n">
@@ -12213,7 +12442,7 @@
       </c>
       <c r="F492" s="7" t="n"/>
       <c r="G492" s="8" t="n"/>
-      <c r="S492" t="inlineStr">
+      <c r="S492" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -12233,7 +12462,7 @@
       </c>
       <c r="F493" s="7" t="n"/>
       <c r="G493" s="8" t="n"/>
-      <c r="S493" t="inlineStr">
+      <c r="S493" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -12253,7 +12482,7 @@
       </c>
       <c r="F494" s="7" t="n"/>
       <c r="G494" s="8" t="n"/>
-      <c r="S494" t="inlineStr">
+      <c r="S494" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -12273,7 +12502,7 @@
       </c>
       <c r="F495" s="7" t="n"/>
       <c r="G495" s="8" t="n"/>
-      <c r="S495" t="inlineStr">
+      <c r="S495" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12295,6 +12524,7 @@
       </c>
       <c r="F496" s="7" t="n"/>
       <c r="G496" s="8" t="n"/>
+      <c r="S496" s="9" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="5" t="n">
@@ -12310,6 +12540,7 @@
       </c>
       <c r="F497" s="7" t="n"/>
       <c r="G497" s="8" t="n"/>
+      <c r="S497" s="9" t="n"/>
     </row>
     <row r="498">
       <c r="A498" s="5" t="n">
@@ -12325,7 +12556,7 @@
       </c>
       <c r="F498" s="7" t="n"/>
       <c r="G498" s="8" t="n"/>
-      <c r="S498" t="inlineStr">
+      <c r="S498" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12345,7 +12576,7 @@
       </c>
       <c r="F499" s="7" t="n"/>
       <c r="G499" s="8" t="n"/>
-      <c r="S499" t="inlineStr">
+      <c r="S499" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12367,6 +12598,7 @@
       </c>
       <c r="F500" s="7" t="n"/>
       <c r="G500" s="8" t="n"/>
+      <c r="S500" s="9" t="n"/>
     </row>
     <row r="501">
       <c r="A501" s="5" t="n">
@@ -12384,6 +12616,7 @@
       </c>
       <c r="F501" s="7" t="n"/>
       <c r="G501" s="8" t="n"/>
+      <c r="S501" s="9" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="5" t="n">
@@ -12399,7 +12632,7 @@
       </c>
       <c r="F502" s="7" t="n"/>
       <c r="G502" s="8" t="n"/>
-      <c r="S502" t="inlineStr">
+      <c r="S502" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12421,6 +12654,7 @@
       </c>
       <c r="F503" s="7" t="n"/>
       <c r="G503" s="8" t="n"/>
+      <c r="S503" s="9" t="n"/>
     </row>
     <row r="504">
       <c r="A504" s="5" t="n">
@@ -12438,6 +12672,7 @@
       </c>
       <c r="F504" s="7" t="n"/>
       <c r="G504" s="8" t="n"/>
+      <c r="S504" s="9" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="5" t="n">
@@ -12455,6 +12690,7 @@
       </c>
       <c r="F505" s="7" t="n"/>
       <c r="G505" s="8" t="n"/>
+      <c r="S505" s="9" t="n"/>
     </row>
     <row r="506">
       <c r="A506" s="5" t="inlineStr">
@@ -12474,6 +12710,7 @@
       </c>
       <c r="F506" s="7" t="n"/>
       <c r="G506" s="8" t="n"/>
+      <c r="S506" s="9" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
@@ -12525,7 +12762,7 @@
         <f>IF(E508&gt;1,(1.732*D508*F508)/1000,(D508*F508)/1000)</f>
         <v/>
       </c>
-      <c r="S508" t="inlineStr">
+      <c r="S508" s="9" t="inlineStr">
         <is>
           <t>SELF CONTAINED</t>
         </is>
@@ -12556,7 +12793,7 @@
         <f>IF(E509&gt;1,(1.732*D509*F509)/1000,(D509*F509)/1000)</f>
         <v/>
       </c>
-      <c r="S509" t="inlineStr">
+      <c r="S509" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH GLASS DOOR</t>
         </is>
@@ -12587,7 +12824,7 @@
         <f>IF(E510&gt;1,(1.732*D510*F510)/1000,(D510*F510)/1000)</f>
         <v/>
       </c>
-      <c r="S510" t="inlineStr">
+      <c r="S510" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH GLASS DOOR</t>
         </is>
@@ -12618,6 +12855,7 @@
         <f>IF(E511&gt;1,(1.732*D511*F511)/1000,(D511*F511)/1000)</f>
         <v/>
       </c>
+      <c r="S511" s="9" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="5" t="n">
@@ -12635,6 +12873,7 @@
       </c>
       <c r="F512" s="7" t="n"/>
       <c r="G512" s="8" t="n"/>
+      <c r="S512" s="9" t="n"/>
     </row>
     <row r="513">
       <c r="A513" s="5" t="n">
@@ -12650,7 +12889,7 @@
       </c>
       <c r="F513" s="7" t="n"/>
       <c r="G513" s="8" t="n"/>
-      <c r="S513" t="inlineStr">
+      <c r="S513" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -12681,7 +12920,7 @@
         <f>IF(E514&gt;1,(1.732*D514*F514)/1000,(D514*F514)/1000)</f>
         <v/>
       </c>
-      <c r="S514" t="inlineStr">
+      <c r="S514" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -12701,7 +12940,7 @@
       </c>
       <c r="F515" s="7" t="n"/>
       <c r="G515" s="8" t="n"/>
-      <c r="S515" t="inlineStr">
+      <c r="S515" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12723,6 +12962,7 @@
       </c>
       <c r="F516" s="7" t="n"/>
       <c r="G516" s="8" t="n"/>
+      <c r="S516" s="9" t="n"/>
     </row>
     <row r="517">
       <c r="A517" s="5" t="n">
@@ -12740,6 +12980,7 @@
       </c>
       <c r="F517" s="7" t="n"/>
       <c r="G517" s="8" t="n"/>
+      <c r="S517" s="9" t="n"/>
     </row>
     <row r="518">
       <c r="A518" s="5" t="n">
@@ -12766,6 +13007,7 @@
         <f>IF(E518&gt;1,(1.732*D518*F518)/1000,(D518*F518)/1000)</f>
         <v/>
       </c>
+      <c r="S518" s="9" t="n"/>
     </row>
     <row r="519">
       <c r="A519" s="5" t="n">
@@ -12781,7 +13023,7 @@
       </c>
       <c r="F519" s="7" t="n"/>
       <c r="G519" s="8" t="n"/>
-      <c r="S519" t="inlineStr">
+      <c r="S519" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -12803,6 +13045,7 @@
       </c>
       <c r="F520" s="7" t="n"/>
       <c r="G520" s="8" t="n"/>
+      <c r="S520" s="9" t="n"/>
     </row>
     <row r="521">
       <c r="A521" s="5" t="n">
@@ -12820,6 +13063,7 @@
       </c>
       <c r="F521" s="7" t="n"/>
       <c r="G521" s="8" t="n"/>
+      <c r="S521" s="9" t="n"/>
     </row>
     <row r="522">
       <c r="A522" s="5" t="inlineStr">
@@ -12839,6 +13083,7 @@
       </c>
       <c r="F522" s="7" t="n"/>
       <c r="G522" s="8" t="n"/>
+      <c r="S522" s="9" t="n"/>
     </row>
     <row r="523">
       <c r="A523" s="3" t="inlineStr">
@@ -12879,7 +13124,7 @@
       </c>
       <c r="F524" s="7" t="n"/>
       <c r="G524" s="8" t="n"/>
-      <c r="S524" t="inlineStr">
+      <c r="S524" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -12920,7 +13165,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S525" t="inlineStr">
+      <c r="S525" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -12956,7 +13201,7 @@
           <t>1/4"</t>
         </is>
       </c>
-      <c r="S526" t="inlineStr">
+      <c r="S526" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -12992,7 +13237,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S527" t="inlineStr">
+      <c r="S527" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -13014,6 +13259,7 @@
       </c>
       <c r="F528" s="7" t="n"/>
       <c r="G528" s="8" t="n"/>
+      <c r="S528" s="9" t="n"/>
     </row>
     <row r="529">
       <c r="A529" s="5" t="n">
@@ -13040,6 +13286,7 @@
         <f>IF(E529&gt;1,(1.732*D529*F529)/1000,(D529*F529)/1000)</f>
         <v/>
       </c>
+      <c r="S529" s="9" t="n"/>
     </row>
     <row r="530">
       <c r="A530" s="5" t="n">
@@ -13066,7 +13313,7 @@
         <f>IF(E530&gt;1,(1.732*D530*F530)/1000,(D530*F530)/1000)</f>
         <v/>
       </c>
-      <c r="S530" t="inlineStr">
+      <c r="S530" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13097,7 +13344,7 @@
         <f>IF(E531&gt;1,(1.732*D531*F531)/1000,(D531*F531)/1000)</f>
         <v/>
       </c>
-      <c r="S531" t="inlineStr">
+      <c r="S531" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13119,6 +13366,7 @@
       </c>
       <c r="F532" s="7" t="n"/>
       <c r="G532" s="8" t="n"/>
+      <c r="S532" s="9" t="n"/>
     </row>
     <row r="533">
       <c r="A533" s="5" t="inlineStr">
@@ -13138,6 +13386,7 @@
       </c>
       <c r="F533" s="7" t="n"/>
       <c r="G533" s="8" t="n"/>
+      <c r="S533" s="9" t="n"/>
     </row>
     <row r="534">
       <c r="A534" s="3" t="inlineStr">
@@ -13178,7 +13427,7 @@
       </c>
       <c r="F535" s="7" t="n"/>
       <c r="G535" s="8" t="n"/>
-      <c r="S535" t="inlineStr">
+      <c r="S535" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -13209,6 +13458,7 @@
         <f>IF(E536&gt;1,(1.732*D536*F536)/1000,(D536*F536)/1000)</f>
         <v/>
       </c>
+      <c r="S536" s="9" t="n"/>
     </row>
     <row r="537">
       <c r="A537" s="5" t="n">
@@ -13229,7 +13479,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S537" t="inlineStr">
+      <c r="S537" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13265,7 +13515,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S538" t="inlineStr">
+      <c r="S538" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -13287,6 +13537,7 @@
       </c>
       <c r="F539" s="7" t="n"/>
       <c r="G539" s="8" t="n"/>
+      <c r="S539" s="9" t="n"/>
     </row>
     <row r="540">
       <c r="A540" s="5" t="n">
@@ -13302,7 +13553,7 @@
       </c>
       <c r="F540" s="7" t="n"/>
       <c r="G540" s="8" t="n"/>
-      <c r="S540" t="inlineStr">
+      <c r="S540" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -13322,6 +13573,7 @@
       </c>
       <c r="F541" s="7" t="n"/>
       <c r="G541" s="8" t="n"/>
+      <c r="S541" s="9" t="n"/>
     </row>
     <row r="542">
       <c r="A542" s="5" t="n">
@@ -13348,6 +13600,7 @@
         <f>IF(E542&gt;1,(1.732*D542*F542)/1000,(D542*F542)/1000)</f>
         <v/>
       </c>
+      <c r="S542" s="9" t="n"/>
     </row>
     <row r="543">
       <c r="A543" s="5" t="n">
@@ -13365,6 +13618,7 @@
       </c>
       <c r="F543" s="7" t="n"/>
       <c r="G543" s="8" t="n"/>
+      <c r="S543" s="9" t="n"/>
     </row>
     <row r="544">
       <c r="A544" s="5" t="n">
@@ -13382,6 +13636,7 @@
       </c>
       <c r="F544" s="7" t="n"/>
       <c r="G544" s="8" t="n"/>
+      <c r="S544" s="9" t="n"/>
     </row>
     <row r="545">
       <c r="A545" s="5" t="n">
@@ -13426,7 +13681,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S545" t="inlineStr">
+      <c r="S545" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13464,7 +13719,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S546" t="inlineStr">
+      <c r="S546" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -13484,7 +13739,7 @@
       </c>
       <c r="F547" s="7" t="n"/>
       <c r="G547" s="8" t="n"/>
-      <c r="S547" t="inlineStr">
+      <c r="S547" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #711</t>
         </is>
@@ -13504,7 +13759,7 @@
       </c>
       <c r="F548" s="7" t="n"/>
       <c r="G548" s="8" t="n"/>
-      <c r="S548" t="inlineStr">
+      <c r="S548" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -13526,6 +13781,7 @@
       </c>
       <c r="F549" s="7" t="n"/>
       <c r="G549" s="8" t="n"/>
+      <c r="S549" s="9" t="n"/>
     </row>
     <row r="550">
       <c r="A550" s="5" t="n">
@@ -13541,7 +13797,7 @@
       </c>
       <c r="F550" s="7" t="n"/>
       <c r="G550" s="8" t="n"/>
-      <c r="S550" t="inlineStr">
+      <c r="S550" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH CONCEALED BRACKETS</t>
         </is>
@@ -13572,7 +13828,7 @@
         <f>IF(E551&gt;1,(1.732*D551*F551)/1000,(D551*F551)/1000)</f>
         <v/>
       </c>
-      <c r="S551" t="inlineStr">
+      <c r="S551" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #718</t>
         </is>
@@ -13609,7 +13865,7 @@
       <c r="O552" t="n">
         <v>990</v>
       </c>
-      <c r="S552" t="inlineStr">
+      <c r="S552" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -13640,7 +13896,7 @@
         <f>IF(E553&gt;1,(1.732*D553*F553)/1000,(D553*F553)/1000)</f>
         <v/>
       </c>
-      <c r="S553" t="inlineStr">
+      <c r="S553" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #718</t>
         </is>
@@ -13662,6 +13918,7 @@
       </c>
       <c r="F554" s="7" t="n"/>
       <c r="G554" s="8" t="n"/>
+      <c r="S554" s="9" t="n"/>
     </row>
     <row r="555">
       <c r="A555" s="5" t="n">
@@ -13680,6 +13937,7 @@
       <c r="M555" t="n">
         <v>90000</v>
       </c>
+      <c r="S555" s="9" t="n"/>
     </row>
     <row r="556">
       <c r="A556" s="5" t="n">
@@ -13706,7 +13964,7 @@
         <f>IF(E556&gt;1,(1.732*D556*F556)/1000,(D556*F556)/1000)</f>
         <v/>
       </c>
-      <c r="S556" t="inlineStr">
+      <c r="S556" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13729,6 +13987,7 @@
       <c r="M557" t="n">
         <v>90000</v>
       </c>
+      <c r="S557" s="9" t="n"/>
     </row>
     <row r="558">
       <c r="A558" s="5" t="n">
@@ -13758,7 +14017,7 @@
       <c r="M558" t="n">
         <v>280000</v>
       </c>
-      <c r="S558" t="inlineStr">
+      <c r="S558" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DUMP STATION</t>
         </is>
@@ -13789,7 +14048,7 @@
         <f>IF(E559&gt;1,(1.732*D559*F559)/1000,(D559*F559)/1000)</f>
         <v/>
       </c>
-      <c r="S559" t="inlineStr">
+      <c r="S559" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DUMP STATION</t>
         </is>
@@ -13811,6 +14070,7 @@
       </c>
       <c r="F560" s="7" t="n"/>
       <c r="G560" s="8" t="n"/>
+      <c r="S560" s="9" t="n"/>
     </row>
     <row r="561">
       <c r="A561" s="5" t="n">
@@ -13837,7 +14097,7 @@
         <f>IF(E561&gt;1,(1.732*D561*F561)/1000,(D561*F561)/1000)</f>
         <v/>
       </c>
-      <c r="S561" t="inlineStr">
+      <c r="S561" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13857,7 +14117,7 @@
       </c>
       <c r="F562" s="7" t="n"/>
       <c r="G562" s="8" t="n"/>
-      <c r="S562" t="inlineStr">
+      <c r="S562" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH CONCEALED BRACKETS</t>
         </is>
@@ -13895,7 +14155,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S563" t="inlineStr">
+      <c r="S563" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -13917,6 +14177,7 @@
       </c>
       <c r="F564" s="7" t="n"/>
       <c r="G564" s="8" t="n"/>
+      <c r="S564" s="9" t="n"/>
     </row>
     <row r="565">
       <c r="A565" s="5" t="n">
@@ -13934,6 +14195,7 @@
       </c>
       <c r="F565" s="7" t="n"/>
       <c r="G565" s="8" t="n"/>
+      <c r="S565" s="9" t="n"/>
     </row>
     <row r="566">
       <c r="A566" s="5" t="n">
@@ -13949,7 +14211,7 @@
       </c>
       <c r="F566" s="7" t="n"/>
       <c r="G566" s="8" t="n"/>
-      <c r="S566" t="inlineStr">
+      <c r="S566" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #711</t>
         </is>
@@ -13969,7 +14231,7 @@
       </c>
       <c r="F567" s="7" t="n"/>
       <c r="G567" s="8" t="n"/>
-      <c r="S567" t="inlineStr">
+      <c r="S567" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -14000,7 +14262,7 @@
         <f>IF(E568&gt;1,(1.732*D568*F568)/1000,(D568*F568)/1000)</f>
         <v/>
       </c>
-      <c r="S568" t="inlineStr">
+      <c r="S568" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH GLASS DOORS</t>
         </is>
@@ -14022,6 +14284,7 @@
       </c>
       <c r="F569" s="7" t="n"/>
       <c r="G569" s="8" t="n"/>
+      <c r="S569" s="9" t="n"/>
     </row>
     <row r="570">
       <c r="A570" s="5" t="n">
@@ -14039,6 +14302,7 @@
       </c>
       <c r="F570" s="7" t="n"/>
       <c r="G570" s="8" t="n"/>
+      <c r="S570" s="9" t="n"/>
     </row>
     <row r="571">
       <c r="A571" s="5" t="n">
@@ -14054,7 +14318,7 @@
       </c>
       <c r="F571" s="7" t="n"/>
       <c r="G571" s="8" t="n"/>
-      <c r="S571" t="inlineStr">
+      <c r="S571" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -14085,7 +14349,7 @@
         <f>IF(E572&gt;1,(1.732*D572*F572)/1000,(D572*F572)/1000)</f>
         <v/>
       </c>
-      <c r="S572" t="inlineStr">
+      <c r="S572" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #736</t>
         </is>
@@ -14105,7 +14369,7 @@
       </c>
       <c r="F573" s="7" t="n"/>
       <c r="G573" s="8" t="n"/>
-      <c r="S573" t="inlineStr">
+      <c r="S573" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #736</t>
         </is>
@@ -14127,6 +14391,7 @@
       </c>
       <c r="F574" s="7" t="n"/>
       <c r="G574" s="8" t="n"/>
+      <c r="S574" s="9" t="n"/>
     </row>
     <row r="575">
       <c r="A575" s="5" t="n">
@@ -14144,6 +14409,7 @@
       </c>
       <c r="F575" s="7" t="n"/>
       <c r="G575" s="8" t="n"/>
+      <c r="S575" s="9" t="n"/>
     </row>
     <row r="576">
       <c r="A576" s="5" t="n">
@@ -14170,7 +14436,7 @@
         <f>IF(E576&gt;1,(1.732*D576*F576)/1000,(D576*F576)/1000)</f>
         <v/>
       </c>
-      <c r="S576" t="inlineStr">
+      <c r="S576" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -14201,6 +14467,7 @@
         <f>IF(E577&gt;1,(1.732*D577*F577)/1000,(D577*F577)/1000)</f>
         <v/>
       </c>
+      <c r="S577" s="9" t="n"/>
     </row>
     <row r="578">
       <c r="A578" s="5" t="n">
@@ -14237,7 +14504,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S578" t="inlineStr">
+      <c r="S578" s="9" t="inlineStr">
         <is>
           <t>4 WELLS WITH AUTOFILL</t>
         </is>
@@ -14268,7 +14535,7 @@
         <f>IF(E579&gt;1,(1.732*D579*F579)/1000,(D579*F579)/1000)</f>
         <v/>
       </c>
-      <c r="S579" t="inlineStr">
+      <c r="S579" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -14290,6 +14557,7 @@
       </c>
       <c r="F580" s="7" t="n"/>
       <c r="G580" s="8" t="n"/>
+      <c r="S580" s="9" t="n"/>
     </row>
     <row r="581">
       <c r="A581" s="5" t="n">
@@ -14316,6 +14584,7 @@
         <f>IF(E581&gt;1,(1.732*D581*F581)/1000,(D581*F581)/1000)</f>
         <v/>
       </c>
+      <c r="S581" s="9" t="n"/>
     </row>
     <row r="582">
       <c r="A582" s="5" t="n">
@@ -14352,7 +14621,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S582" t="inlineStr">
+      <c r="S582" s="9" t="inlineStr">
         <is>
           <t>2 WELLS AUTOFILL</t>
         </is>
@@ -14383,7 +14652,7 @@
         <f>IF(E583&gt;1,(1.732*D583*F583)/1000,(D583*F583)/1000)</f>
         <v/>
       </c>
-      <c r="S583" t="inlineStr">
+      <c r="S583" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -14405,6 +14674,7 @@
       </c>
       <c r="F584" s="7" t="n"/>
       <c r="G584" s="8" t="n"/>
+      <c r="S584" s="9" t="n"/>
     </row>
     <row r="585">
       <c r="A585" s="5" t="n">
@@ -14422,6 +14692,7 @@
       </c>
       <c r="F585" s="7" t="n"/>
       <c r="G585" s="8" t="n"/>
+      <c r="S585" s="9" t="n"/>
     </row>
     <row r="586">
       <c r="A586" s="5" t="n">
@@ -14448,6 +14719,7 @@
         <f>IF(E586&gt;1,(1.732*D586*F586)/1000,(D586*F586)/1000)</f>
         <v/>
       </c>
+      <c r="S586" s="9" t="n"/>
     </row>
     <row r="587">
       <c r="A587" s="5" t="n">
@@ -14479,7 +14751,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S587" t="inlineStr">
+      <c r="S587" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM#736</t>
         </is>
@@ -14510,7 +14782,7 @@
         <f>IF(E588&gt;1,(1.732*D588*F588)/1000,(D588*F588)/1000)</f>
         <v/>
       </c>
-      <c r="S588" t="inlineStr">
+      <c r="S588" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -14541,7 +14813,7 @@
         <f>IF(E589&gt;1,(1.732*D589*F589)/1000,(D589*F589)/1000)</f>
         <v/>
       </c>
-      <c r="S589" t="inlineStr">
+      <c r="S589" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -14565,6 +14837,7 @@
       </c>
       <c r="F590" s="7" t="n"/>
       <c r="G590" s="8" t="n"/>
+      <c r="S590" s="9" t="n"/>
     </row>
     <row r="591">
       <c r="A591" s="5" t="n">
@@ -14591,7 +14864,7 @@
         <f>IF(E591&gt;1,(1.732*D591*F591)/1000,(D591*F591)/1000)</f>
         <v/>
       </c>
-      <c r="S591" t="inlineStr">
+      <c r="S591" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -14625,6 +14898,7 @@
       <c r="M592" t="n">
         <v>188000</v>
       </c>
+      <c r="S592" s="9" t="n"/>
     </row>
     <row r="593">
       <c r="A593" s="5" t="n">
@@ -14643,6 +14917,7 @@
       <c r="N593" t="n">
         <v>685</v>
       </c>
+      <c r="S593" s="9" t="n"/>
     </row>
     <row r="594">
       <c r="A594" s="5" t="n">
@@ -14660,6 +14935,7 @@
       </c>
       <c r="F594" s="7" t="n"/>
       <c r="G594" s="8" t="n"/>
+      <c r="S594" s="9" t="n"/>
     </row>
     <row r="595">
       <c r="A595" s="5" t="n">
@@ -14686,7 +14962,7 @@
         <f>IF(E595&gt;1,(1.732*D595*F595)/1000,(D595*F595)/1000)</f>
         <v/>
       </c>
-      <c r="S595" t="inlineStr">
+      <c r="S595" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -14706,7 +14982,7 @@
       </c>
       <c r="F596" s="7" t="n"/>
       <c r="G596" s="8" t="n"/>
-      <c r="S596" t="inlineStr">
+      <c r="S596" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH CONCEALED BRACKETS</t>
         </is>
@@ -14737,7 +15013,7 @@
         <f>IF(E597&gt;1,(1.732*D597*F597)/1000,(D597*F597)/1000)</f>
         <v/>
       </c>
-      <c r="S597" t="inlineStr">
+      <c r="S597" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -14757,7 +15033,7 @@
       </c>
       <c r="F598" s="7" t="n"/>
       <c r="G598" s="8" t="n"/>
-      <c r="S598" t="inlineStr">
+      <c r="S598" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #770</t>
         </is>
@@ -14779,6 +15055,7 @@
       </c>
       <c r="F599" s="7" t="n"/>
       <c r="G599" s="8" t="n"/>
+      <c r="S599" s="9" t="n"/>
     </row>
     <row r="600">
       <c r="A600" s="5" t="n">
@@ -14796,6 +15073,7 @@
       </c>
       <c r="F600" s="7" t="n"/>
       <c r="G600" s="8" t="n"/>
+      <c r="S600" s="9" t="n"/>
     </row>
     <row r="601">
       <c r="A601" s="5" t="n">
@@ -14811,7 +15089,7 @@
       </c>
       <c r="F601" s="7" t="n"/>
       <c r="G601" s="8" t="n"/>
-      <c r="S601" t="inlineStr">
+      <c r="S601" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -14842,7 +15120,7 @@
         <f>IF(E602&gt;1,(1.732*D602*F602)/1000,(D602*F602)/1000)</f>
         <v/>
       </c>
-      <c r="S602" t="inlineStr">
+      <c r="S602" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #776</t>
         </is>
@@ -14878,7 +15156,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S603" t="inlineStr">
+      <c r="S603" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM#776</t>
         </is>
@@ -14900,6 +15178,7 @@
       </c>
       <c r="F604" s="7" t="n"/>
       <c r="G604" s="8" t="n"/>
+      <c r="S604" s="9" t="n"/>
     </row>
     <row r="605">
       <c r="A605" s="5" t="n">
@@ -14917,6 +15196,7 @@
       </c>
       <c r="F605" s="7" t="n"/>
       <c r="G605" s="8" t="n"/>
+      <c r="S605" s="9" t="n"/>
     </row>
     <row r="606">
       <c r="A606" s="5" t="n">
@@ -14932,7 +15212,7 @@
       </c>
       <c r="F606" s="7" t="n"/>
       <c r="G606" s="8" t="n"/>
-      <c r="S606" t="inlineStr">
+      <c r="S606" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #776</t>
         </is>
@@ -14963,6 +15243,7 @@
         <f>IF(E607&gt;1,(1.732*D607*F607)/1000,(D607*F607)/1000)</f>
         <v/>
       </c>
+      <c r="S607" s="9" t="n"/>
     </row>
     <row r="608">
       <c r="A608" s="5" t="n">
@@ -14989,7 +15270,7 @@
         <f>IF(E608&gt;1,(1.732*D608*F608)/1000,(D608*F608)/1000)</f>
         <v/>
       </c>
-      <c r="S608" t="inlineStr">
+      <c r="S608" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -15020,6 +15301,7 @@
         <f>IF(E609&gt;1,(1.732*D609*F609)/1000,(D609*F609)/1000)</f>
         <v/>
       </c>
+      <c r="S609" s="9" t="n"/>
     </row>
     <row r="610">
       <c r="A610" s="5" t="n">
@@ -15037,6 +15319,7 @@
       </c>
       <c r="F610" s="7" t="n"/>
       <c r="G610" s="8" t="n"/>
+      <c r="S610" s="9" t="n"/>
     </row>
     <row r="611">
       <c r="A611" s="5" t="n">
@@ -15068,7 +15351,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S611" t="inlineStr">
+      <c r="S611" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM#776</t>
         </is>
@@ -15088,7 +15371,7 @@
       </c>
       <c r="F612" s="7" t="n"/>
       <c r="G612" s="8" t="n"/>
-      <c r="S612" t="inlineStr">
+      <c r="S612" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #776</t>
         </is>
@@ -15119,6 +15402,7 @@
         <f>IF(E613&gt;1,(1.732*D613*F613)/1000,(D613*F613)/1000)</f>
         <v/>
       </c>
+      <c r="S613" s="9" t="n"/>
     </row>
     <row r="614">
       <c r="A614" s="5" t="n">
@@ -15136,6 +15420,7 @@
       </c>
       <c r="F614" s="7" t="n"/>
       <c r="G614" s="8" t="n"/>
+      <c r="S614" s="9" t="n"/>
     </row>
     <row r="615">
       <c r="A615" s="5" t="n">
@@ -15153,6 +15438,7 @@
       </c>
       <c r="F615" s="7" t="n"/>
       <c r="G615" s="8" t="n"/>
+      <c r="S615" s="9" t="n"/>
     </row>
     <row r="616">
       <c r="A616" s="5" t="n">
@@ -15179,7 +15465,7 @@
         <f>IF(E616&gt;1,(1.732*D616*F616)/1000,(D616*F616)/1000)</f>
         <v/>
       </c>
-      <c r="S616" t="inlineStr">
+      <c r="S616" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -15210,6 +15496,7 @@
         <f>IF(E617&gt;1,(1.732*D617*F617)/1000,(D617*F617)/1000)</f>
         <v/>
       </c>
+      <c r="S617" s="9" t="n"/>
     </row>
     <row r="618">
       <c r="A618" s="5" t="n">
@@ -15227,6 +15514,7 @@
       </c>
       <c r="F618" s="7" t="n"/>
       <c r="G618" s="8" t="n"/>
+      <c r="S618" s="9" t="n"/>
     </row>
     <row r="619">
       <c r="A619" s="5" t="n">
@@ -15244,6 +15532,7 @@
       </c>
       <c r="F619" s="7" t="n"/>
       <c r="G619" s="8" t="n"/>
+      <c r="S619" s="9" t="n"/>
     </row>
     <row r="620">
       <c r="A620" s="5" t="inlineStr">
@@ -15263,6 +15552,7 @@
       </c>
       <c r="F620" s="7" t="n"/>
       <c r="G620" s="8" t="n"/>
+      <c r="S620" s="9" t="n"/>
     </row>
     <row r="621">
       <c r="A621" s="5" t="n">
@@ -15289,7 +15579,7 @@
         <f>IF(E621&gt;1,(1.732*D621*F621)/1000,(D621*F621)/1000)</f>
         <v/>
       </c>
-      <c r="S621" t="inlineStr">
+      <c r="S621" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -15327,7 +15617,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S622" t="inlineStr">
+      <c r="S622" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15347,7 +15637,7 @@
       </c>
       <c r="F623" s="7" t="n"/>
       <c r="G623" s="8" t="n"/>
-      <c r="S623" t="inlineStr">
+      <c r="S623" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -15367,7 +15657,7 @@
       </c>
       <c r="F624" s="7" t="n"/>
       <c r="G624" s="8" t="n"/>
-      <c r="S624" t="inlineStr">
+      <c r="S624" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -15387,7 +15677,7 @@
       </c>
       <c r="F625" s="7" t="n"/>
       <c r="G625" s="8" t="n"/>
-      <c r="S625" t="inlineStr">
+      <c r="S625" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH CONCEALED BRACKETS</t>
         </is>
@@ -15418,7 +15708,7 @@
         <f>IF(E626&gt;1,(1.732*D626*F626)/1000,(D626*F626)/1000)</f>
         <v/>
       </c>
-      <c r="S626" t="inlineStr">
+      <c r="S626" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15449,7 +15739,7 @@
         <f>IF(E627&gt;1,(1.732*D627*F627)/1000,(D627*F627)/1000)</f>
         <v/>
       </c>
-      <c r="S627" t="inlineStr">
+      <c r="S627" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -15469,7 +15759,7 @@
       </c>
       <c r="F628" s="7" t="n"/>
       <c r="G628" s="8" t="n"/>
-      <c r="S628" t="inlineStr">
+      <c r="S628" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -15491,6 +15781,7 @@
       </c>
       <c r="F629" s="7" t="n"/>
       <c r="G629" s="8" t="n"/>
+      <c r="S629" s="9" t="n"/>
     </row>
     <row r="630">
       <c r="A630" s="5" t="n">
@@ -15508,6 +15799,7 @@
       </c>
       <c r="F630" s="7" t="n"/>
       <c r="G630" s="8" t="n"/>
+      <c r="S630" s="9" t="n"/>
     </row>
     <row r="631">
       <c r="A631" s="5" t="n">
@@ -15523,7 +15815,7 @@
       </c>
       <c r="F631" s="7" t="n"/>
       <c r="G631" s="8" t="n"/>
-      <c r="S631" t="inlineStr">
+      <c r="S631" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -15561,7 +15853,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S632" t="inlineStr">
+      <c r="S632" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -15581,7 +15873,7 @@
       </c>
       <c r="F633" s="7" t="n"/>
       <c r="G633" s="8" t="n"/>
-      <c r="S633" t="inlineStr">
+      <c r="S633" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH CONCEALED BRACKETS</t>
         </is>
@@ -15603,6 +15895,7 @@
       </c>
       <c r="F634" s="7" t="n"/>
       <c r="G634" s="8" t="n"/>
+      <c r="S634" s="9" t="n"/>
     </row>
     <row r="635">
       <c r="A635" s="5" t="n">
@@ -15620,6 +15913,7 @@
       </c>
       <c r="F635" s="7" t="n"/>
       <c r="G635" s="8" t="n"/>
+      <c r="S635" s="9" t="n"/>
     </row>
     <row r="636">
       <c r="A636" s="5" t="n">
@@ -15635,7 +15929,7 @@
       </c>
       <c r="F636" s="7" t="n"/>
       <c r="G636" s="8" t="n"/>
-      <c r="S636" t="inlineStr">
+      <c r="S636" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15666,7 +15960,7 @@
         <f>IF(E637&gt;1,(1.732*D637*F637)/1000,(D637*F637)/1000)</f>
         <v/>
       </c>
-      <c r="S637" t="inlineStr">
+      <c r="S637" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #816</t>
         </is>
@@ -15686,7 +15980,7 @@
       </c>
       <c r="F638" s="7" t="n"/>
       <c r="G638" s="8" t="n"/>
-      <c r="S638" t="inlineStr">
+      <c r="S638" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #816</t>
         </is>
@@ -15708,6 +16002,7 @@
       </c>
       <c r="F639" s="7" t="n"/>
       <c r="G639" s="8" t="n"/>
+      <c r="S639" s="9" t="n"/>
     </row>
     <row r="640">
       <c r="A640" s="5" t="n">
@@ -15725,6 +16020,7 @@
       </c>
       <c r="F640" s="7" t="n"/>
       <c r="G640" s="8" t="n"/>
+      <c r="S640" s="9" t="n"/>
     </row>
     <row r="641">
       <c r="A641" s="5" t="n">
@@ -15740,7 +16036,7 @@
       </c>
       <c r="F641" s="7" t="n"/>
       <c r="G641" s="8" t="n"/>
-      <c r="S641" t="inlineStr">
+      <c r="S641" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #816</t>
         </is>
@@ -15776,7 +16072,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S642" t="inlineStr">
+      <c r="S642" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM#816</t>
         </is>
@@ -15807,7 +16103,7 @@
         <f>IF(E643&gt;1,(1.732*D643*F643)/1000,(D643*F643)/1000)</f>
         <v/>
       </c>
-      <c r="S643" t="inlineStr">
+      <c r="S643" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -15843,7 +16139,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S644" t="inlineStr">
+      <c r="S644" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM#816</t>
         </is>
@@ -15865,6 +16161,7 @@
       </c>
       <c r="F645" s="7" t="n"/>
       <c r="G645" s="8" t="n"/>
+      <c r="S645" s="9" t="n"/>
     </row>
     <row r="646">
       <c r="A646" s="5" t="n">
@@ -15891,7 +16188,7 @@
         <f>IF(E646&gt;1,(1.732*D646*F646)/1000,(D646*F646)/1000)</f>
         <v/>
       </c>
-      <c r="S646" t="inlineStr">
+      <c r="S646" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -15913,6 +16210,7 @@
       </c>
       <c r="F647" s="7" t="n"/>
       <c r="G647" s="8" t="n"/>
+      <c r="S647" s="9" t="n"/>
     </row>
     <row r="648">
       <c r="A648" s="5" t="n">
@@ -15930,6 +16228,7 @@
       </c>
       <c r="F648" s="7" t="n"/>
       <c r="G648" s="8" t="n"/>
+      <c r="S648" s="9" t="n"/>
     </row>
     <row r="649">
       <c r="A649" s="5" t="n">
@@ -15947,6 +16246,7 @@
       </c>
       <c r="F649" s="7" t="n"/>
       <c r="G649" s="8" t="n"/>
+      <c r="S649" s="9" t="n"/>
     </row>
     <row r="650">
       <c r="A650" s="5" t="n">
@@ -15964,6 +16264,7 @@
       </c>
       <c r="F650" s="7" t="n"/>
       <c r="G650" s="8" t="n"/>
+      <c r="S650" s="9" t="n"/>
     </row>
     <row r="651">
       <c r="A651" s="5" t="n">
@@ -15979,7 +16280,7 @@
       </c>
       <c r="F651" s="7" t="n"/>
       <c r="G651" s="8" t="n"/>
-      <c r="S651" t="inlineStr">
+      <c r="S651" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15999,7 +16300,7 @@
       </c>
       <c r="F652" s="7" t="n"/>
       <c r="G652" s="8" t="n"/>
-      <c r="S652" t="inlineStr">
+      <c r="S652" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -16040,7 +16341,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S653" t="inlineStr">
+      <c r="S653" s="9" t="inlineStr">
         <is>
           <t>1 WELL AUTOFILL</t>
         </is>
@@ -16076,7 +16377,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S654" t="inlineStr">
+      <c r="S654" s="9" t="inlineStr">
         <is>
           <t>2 WELLS</t>
         </is>
@@ -16098,6 +16399,7 @@
       </c>
       <c r="F655" s="7" t="n"/>
       <c r="G655" s="8" t="n"/>
+      <c r="S655" s="9" t="n"/>
     </row>
     <row r="656">
       <c r="A656" s="5" t="n">
@@ -16124,7 +16426,7 @@
         <f>IF(E656&gt;1,(1.732*D656*F656)/1000,(D656*F656)/1000)</f>
         <v/>
       </c>
-      <c r="S656" t="inlineStr">
+      <c r="S656" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -16160,7 +16462,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S657" t="inlineStr">
+      <c r="S657" s="9" t="inlineStr">
         <is>
           <t>3 WELLS</t>
         </is>
@@ -16191,7 +16493,7 @@
         <f>IF(E658&gt;1,(1.732*D658*F658)/1000,(D658*F658)/1000)</f>
         <v/>
       </c>
-      <c r="S658" t="inlineStr">
+      <c r="S658" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -16213,6 +16515,7 @@
       </c>
       <c r="F659" s="7" t="n"/>
       <c r="G659" s="8" t="n"/>
+      <c r="S659" s="9" t="n"/>
     </row>
     <row r="660">
       <c r="A660" s="5" t="n">
@@ -16230,6 +16533,7 @@
       </c>
       <c r="F660" s="7" t="n"/>
       <c r="G660" s="8" t="n"/>
+      <c r="S660" s="9" t="n"/>
     </row>
     <row r="661">
       <c r="A661" s="5" t="n">
@@ -16245,7 +16549,7 @@
       </c>
       <c r="F661" s="7" t="n"/>
       <c r="G661" s="8" t="n"/>
-      <c r="S661" t="inlineStr">
+      <c r="S661" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -16276,7 +16580,7 @@
         <f>IF(E662&gt;1,(1.732*D662*F662)/1000,(D662*F662)/1000)</f>
         <v/>
       </c>
-      <c r="S662" t="inlineStr">
+      <c r="S662" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH LED LIGHTS</t>
         </is>
@@ -16298,6 +16602,7 @@
       </c>
       <c r="F663" s="7" t="n"/>
       <c r="G663" s="8" t="n"/>
+      <c r="S663" s="9" t="n"/>
     </row>
     <row r="664">
       <c r="A664" s="5" t="n">
@@ -16324,7 +16629,7 @@
         <f>IF(E664&gt;1,(1.732*D664*F664)/1000,(D664*F664)/1000)</f>
         <v/>
       </c>
-      <c r="S664" t="inlineStr">
+      <c r="S664" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -16346,6 +16651,7 @@
       </c>
       <c r="F665" s="7" t="n"/>
       <c r="G665" s="8" t="n"/>
+      <c r="S665" s="9" t="n"/>
     </row>
     <row r="666">
       <c r="A666" s="5" t="n">
@@ -16361,7 +16667,7 @@
       </c>
       <c r="F666" s="7" t="n"/>
       <c r="G666" s="8" t="n"/>
-      <c r="S666" t="inlineStr">
+      <c r="S666" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #841</t>
         </is>
@@ -16381,7 +16687,7 @@
       </c>
       <c r="F667" s="7" t="n"/>
       <c r="G667" s="8" t="n"/>
-      <c r="S667" t="inlineStr">
+      <c r="S667" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -16422,6 +16728,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S668" s="9" t="n"/>
     </row>
     <row r="669">
       <c r="A669" s="5" t="n">
@@ -16439,6 +16746,7 @@
       </c>
       <c r="F669" s="7" t="n"/>
       <c r="G669" s="8" t="n"/>
+      <c r="S669" s="9" t="n"/>
     </row>
     <row r="670">
       <c r="A670" s="5" t="n">
@@ -16456,6 +16764,7 @@
       </c>
       <c r="F670" s="7" t="n"/>
       <c r="G670" s="8" t="n"/>
+      <c r="S670" s="9" t="n"/>
     </row>
     <row r="671">
       <c r="A671" s="5" t="n">
@@ -16471,6 +16780,7 @@
       </c>
       <c r="F671" s="7" t="n"/>
       <c r="G671" s="8" t="n"/>
+      <c r="S671" s="9" t="n"/>
     </row>
     <row r="672">
       <c r="A672" s="5" t="n">
@@ -16486,7 +16796,7 @@
       </c>
       <c r="F672" s="7" t="n"/>
       <c r="G672" s="8" t="n"/>
-      <c r="S672" t="inlineStr">
+      <c r="S672" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #841</t>
         </is>
@@ -16506,7 +16816,7 @@
       </c>
       <c r="F673" s="7" t="n"/>
       <c r="G673" s="8" t="n"/>
-      <c r="S673" t="inlineStr">
+      <c r="S673" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -16544,7 +16854,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S674" t="inlineStr">
+      <c r="S674" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #841</t>
         </is>
@@ -16566,6 +16876,7 @@
       </c>
       <c r="F675" s="7" t="n"/>
       <c r="G675" s="8" t="n"/>
+      <c r="S675" s="9" t="n"/>
     </row>
     <row r="676">
       <c r="A676" s="5" t="n">
@@ -16581,7 +16892,7 @@
       </c>
       <c r="F676" s="7" t="n"/>
       <c r="G676" s="8" t="n"/>
-      <c r="S676" t="inlineStr">
+      <c r="S676" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #841</t>
         </is>
@@ -16601,7 +16912,7 @@
       </c>
       <c r="F677" s="7" t="n"/>
       <c r="G677" s="8" t="n"/>
-      <c r="S677" t="inlineStr">
+      <c r="S677" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -16621,7 +16932,7 @@
       </c>
       <c r="F678" s="7" t="n"/>
       <c r="G678" s="8" t="n"/>
-      <c r="S678" t="inlineStr">
+      <c r="S678" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -16643,6 +16954,7 @@
       </c>
       <c r="F679" s="7" t="n"/>
       <c r="G679" s="8" t="n"/>
+      <c r="S679" s="9" t="n"/>
     </row>
     <row r="680">
       <c r="A680" s="5" t="n">
@@ -16660,6 +16972,7 @@
       </c>
       <c r="F680" s="7" t="n"/>
       <c r="G680" s="8" t="n"/>
+      <c r="S680" s="9" t="n"/>
     </row>
     <row r="681">
       <c r="A681" s="5" t="n">
@@ -16685,7 +16998,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S681" t="inlineStr">
+      <c r="S681" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #848</t>
         </is>
@@ -16723,7 +17036,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S682" t="inlineStr">
+      <c r="S682" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #867</t>
         </is>
@@ -16748,7 +17061,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S683" t="inlineStr">
+      <c r="S683" s="9" t="inlineStr">
         <is>
           <t>23 LBS</t>
         </is>
@@ -16778,6 +17091,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S684" s="9" t="n"/>
     </row>
     <row r="685">
       <c r="A685" s="5" t="n">
@@ -16795,6 +17109,7 @@
       </c>
       <c r="F685" s="7" t="n"/>
       <c r="G685" s="8" t="n"/>
+      <c r="S685" s="9" t="n"/>
     </row>
     <row r="686">
       <c r="A686" s="5" t="n">
@@ -16821,7 +17136,7 @@
         <f>IF(E686&gt;1,(1.732*D686*F686)/1000,(D686*F686)/1000)</f>
         <v/>
       </c>
-      <c r="S686" t="inlineStr">
+      <c r="S686" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -16870,7 +17185,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S687" t="inlineStr">
+      <c r="S687" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -16890,7 +17205,7 @@
       </c>
       <c r="F688" s="7" t="n"/>
       <c r="G688" s="8" t="n"/>
-      <c r="S688" t="inlineStr">
+      <c r="S688" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH CONCEALED BRACKETS</t>
         </is>
@@ -16912,6 +17227,7 @@
       </c>
       <c r="F689" s="7" t="n"/>
       <c r="G689" s="8" t="n"/>
+      <c r="S689" s="9" t="n"/>
     </row>
     <row r="690">
       <c r="A690" s="5" t="n">
@@ -16929,6 +17245,7 @@
       </c>
       <c r="F690" s="7" t="n"/>
       <c r="G690" s="8" t="n"/>
+      <c r="S690" s="9" t="n"/>
     </row>
     <row r="691">
       <c r="A691" s="5" t="n">
@@ -16955,7 +17272,7 @@
         <f>IF(E691&gt;1,(1.732*D691*F691)/1000,(D691*F691)/1000)</f>
         <v/>
       </c>
-      <c r="S691" t="inlineStr">
+      <c r="S691" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -16975,7 +17292,7 @@
       </c>
       <c r="F692" s="7" t="n"/>
       <c r="G692" s="8" t="n"/>
-      <c r="S692" t="inlineStr">
+      <c r="S692" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #867</t>
         </is>
@@ -16995,7 +17312,7 @@
       </c>
       <c r="F693" s="7" t="n"/>
       <c r="G693" s="8" t="n"/>
-      <c r="S693" t="inlineStr">
+      <c r="S693" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -17033,7 +17350,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S694" t="inlineStr">
+      <c r="S694" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -17055,6 +17372,7 @@
       </c>
       <c r="F695" s="7" t="n"/>
       <c r="G695" s="8" t="n"/>
+      <c r="S695" s="9" t="n"/>
     </row>
     <row r="696">
       <c r="A696" s="5" t="n">
@@ -17072,6 +17390,7 @@
       </c>
       <c r="F696" s="7" t="n"/>
       <c r="G696" s="8" t="n"/>
+      <c r="S696" s="9" t="n"/>
     </row>
     <row r="697">
       <c r="A697" s="5" t="n">
@@ -17089,6 +17408,7 @@
       </c>
       <c r="F697" s="7" t="n"/>
       <c r="G697" s="8" t="n"/>
+      <c r="S697" s="9" t="n"/>
     </row>
     <row r="698">
       <c r="A698" s="5" t="n">
@@ -17115,7 +17435,7 @@
         <f>IF(E698&gt;1,(1.732*D698*F698)/1000,(D698*F698)/1000)</f>
         <v/>
       </c>
-      <c r="S698" t="inlineStr">
+      <c r="S698" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -17137,6 +17457,7 @@
       </c>
       <c r="F699" s="7" t="n"/>
       <c r="G699" s="8" t="n"/>
+      <c r="S699" s="9" t="n"/>
     </row>
     <row r="700">
       <c r="A700" s="5" t="n">
@@ -17154,6 +17475,7 @@
       </c>
       <c r="F700" s="7" t="n"/>
       <c r="G700" s="8" t="n"/>
+      <c r="S700" s="9" t="n"/>
     </row>
     <row r="701">
       <c r="A701" s="5" t="n">
@@ -17169,7 +17491,7 @@
       </c>
       <c r="F701" s="7" t="n"/>
       <c r="G701" s="8" t="n"/>
-      <c r="S701" t="inlineStr">
+      <c r="S701" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH CONCEALED BRACKETS</t>
         </is>
@@ -17200,7 +17522,7 @@
         <f>IF(E702&gt;1,(1.732*D702*F702)/1000,(D702*F702)/1000)</f>
         <v/>
       </c>
-      <c r="S702" t="inlineStr">
+      <c r="S702" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -17220,7 +17542,7 @@
       </c>
       <c r="F703" s="7" t="n"/>
       <c r="G703" s="8" t="n"/>
-      <c r="S703" t="inlineStr">
+      <c r="S703" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -17251,7 +17573,7 @@
         <f>IF(E704&gt;1,(1.732*D704*F704)/1000,(D704*F704)/1000)</f>
         <v/>
       </c>
-      <c r="S704" t="inlineStr">
+      <c r="S704" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #883</t>
         </is>
@@ -17273,6 +17595,7 @@
       </c>
       <c r="F705" s="7" t="n"/>
       <c r="G705" s="8" t="n"/>
+      <c r="S705" s="9" t="n"/>
     </row>
     <row r="706">
       <c r="A706" s="5" t="n">
@@ -17288,7 +17611,7 @@
       </c>
       <c r="F706" s="7" t="n"/>
       <c r="G706" s="8" t="n"/>
-      <c r="S706" t="inlineStr">
+      <c r="S706" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #883</t>
         </is>
@@ -17319,7 +17642,7 @@
         <f>IF(E707&gt;1,(1.732*D707*F707)/1000,(D707*F707)/1000)</f>
         <v/>
       </c>
-      <c r="S707" t="inlineStr">
+      <c r="S707" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -17360,7 +17683,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S708" t="inlineStr">
+      <c r="S708" s="9" t="inlineStr">
         <is>
           <t>2 WELLS AUTOFILL</t>
         </is>
@@ -17382,6 +17705,7 @@
       </c>
       <c r="F709" s="7" t="n"/>
       <c r="G709" s="8" t="n"/>
+      <c r="S709" s="9" t="n"/>
     </row>
     <row r="710">
       <c r="A710" s="5" t="n">
@@ -17399,6 +17723,7 @@
       </c>
       <c r="F710" s="7" t="n"/>
       <c r="G710" s="8" t="n"/>
+      <c r="S710" s="9" t="n"/>
     </row>
     <row r="711">
       <c r="A711" s="5" t="n">
@@ -17425,7 +17750,7 @@
         <f>IF(E711&gt;1,(1.732*D711*F711)/1000,(D711*F711)/1000)</f>
         <v/>
       </c>
-      <c r="S711" t="inlineStr">
+      <c r="S711" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -17456,6 +17781,7 @@
         <f>IF(E712&gt;1,(1.732*D712*F712)/1000,(D712*F712)/1000)</f>
         <v/>
       </c>
+      <c r="S712" s="9" t="n"/>
     </row>
     <row r="713">
       <c r="A713" s="5" t="n">
@@ -17492,7 +17818,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S713" t="inlineStr">
+      <c r="S713" s="9" t="inlineStr">
         <is>
           <t>3 WELL AUTOFILL</t>
         </is>
@@ -17523,7 +17849,7 @@
         <f>IF(E714&gt;1,(1.732*D714*F714)/1000,(D714*F714)/1000)</f>
         <v/>
       </c>
-      <c r="S714" t="inlineStr">
+      <c r="S714" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -17545,6 +17871,7 @@
       </c>
       <c r="F715" s="7" t="n"/>
       <c r="G715" s="8" t="n"/>
+      <c r="S715" s="9" t="n"/>
     </row>
     <row r="716">
       <c r="A716" s="5" t="n">
@@ -17571,6 +17898,7 @@
         <f>IF(E716&gt;1,(1.732*D716*F716)/1000,(D716*F716)/1000)</f>
         <v/>
       </c>
+      <c r="S716" s="9" t="n"/>
     </row>
     <row r="717">
       <c r="A717" s="5" t="n">
@@ -17602,7 +17930,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S717" t="inlineStr">
+      <c r="S717" s="9" t="inlineStr">
         <is>
           <t>2 WELLS</t>
         </is>
@@ -17633,7 +17961,7 @@
         <f>IF(E718&gt;1,(1.732*D718*F718)/1000,(D718*F718)/1000)</f>
         <v/>
       </c>
-      <c r="S718" t="inlineStr">
+      <c r="S718" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LED LIGHT</t>
         </is>
@@ -17655,6 +17983,7 @@
       </c>
       <c r="F719" s="7" t="n"/>
       <c r="G719" s="8" t="n"/>
+      <c r="S719" s="9" t="n"/>
     </row>
     <row r="720">
       <c r="A720" s="5" t="n">
@@ -17672,6 +18001,7 @@
       </c>
       <c r="F720" s="7" t="n"/>
       <c r="G720" s="8" t="n"/>
+      <c r="S720" s="9" t="n"/>
     </row>
     <row r="721">
       <c r="A721" s="5" t="n">
@@ -17687,7 +18017,7 @@
       </c>
       <c r="F721" s="7" t="n"/>
       <c r="G721" s="8" t="n"/>
-      <c r="S721" t="inlineStr">
+      <c r="S721" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -17709,6 +18039,7 @@
       </c>
       <c r="F722" s="7" t="n"/>
       <c r="G722" s="8" t="n"/>
+      <c r="S722" s="9" t="n"/>
     </row>
     <row r="723">
       <c r="A723" s="5" t="n">
@@ -17726,6 +18057,7 @@
       </c>
       <c r="F723" s="7" t="n"/>
       <c r="G723" s="8" t="n"/>
+      <c r="S723" s="9" t="n"/>
     </row>
     <row r="724">
       <c r="A724" s="5" t="n">
@@ -17743,6 +18075,7 @@
       </c>
       <c r="F724" s="7" t="n"/>
       <c r="G724" s="8" t="n"/>
+      <c r="S724" s="9" t="n"/>
     </row>
     <row r="725">
       <c r="A725" s="5" t="inlineStr">
@@ -17762,6 +18095,7 @@
       </c>
       <c r="F725" s="7" t="n"/>
       <c r="G725" s="8" t="n"/>
+      <c r="S725" s="9" t="n"/>
     </row>
     <row r="726">
       <c r="A726" s="3" t="inlineStr">
@@ -17813,7 +18147,7 @@
         <f>IF(E727&gt;1,(1.732*D727*F727)/1000,(D727*F727)/1000)</f>
         <v/>
       </c>
-      <c r="S727" t="inlineStr">
+      <c r="S727" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -17849,7 +18183,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S728" t="inlineStr">
+      <c r="S728" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -17893,7 +18227,7 @@
       <c r="P729" t="n">
         <v>7900</v>
       </c>
-      <c r="S729" t="inlineStr">
+      <c r="S729" s="9" t="inlineStr">
         <is>
           <t>500LBS. AIR-COOLED</t>
         </is>
@@ -17923,7 +18257,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S730" t="inlineStr">
+      <c r="S730" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #913</t>
         </is>
@@ -17945,6 +18279,7 @@
       </c>
       <c r="F731" s="7" t="n"/>
       <c r="G731" s="8" t="n"/>
+      <c r="S731" s="9" t="n"/>
     </row>
     <row r="732">
       <c r="A732" s="5" t="n">
@@ -17979,7 +18314,7 @@
       <c r="J732" t="n">
         <v>5</v>
       </c>
-      <c r="S732" t="inlineStr">
+      <c r="S732" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -18018,7 +18353,7 @@
       <c r="J733" t="n">
         <v>5</v>
       </c>
-      <c r="S733" t="inlineStr">
+      <c r="S733" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -18057,7 +18392,7 @@
       <c r="J734" t="n">
         <v>5</v>
       </c>
-      <c r="S734" t="inlineStr">
+      <c r="S734" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -18079,6 +18414,7 @@
       </c>
       <c r="F735" s="7" t="n"/>
       <c r="G735" s="8" t="n"/>
+      <c r="S735" s="9" t="n"/>
     </row>
     <row r="736">
       <c r="A736" s="5" t="n">
@@ -18096,6 +18432,7 @@
       </c>
       <c r="F736" s="7" t="n"/>
       <c r="G736" s="8" t="n"/>
+      <c r="S736" s="9" t="n"/>
     </row>
     <row r="737">
       <c r="A737" s="5" t="n">
@@ -18111,7 +18448,7 @@
       </c>
       <c r="F737" s="7" t="n"/>
       <c r="G737" s="8" t="n"/>
-      <c r="S737" t="inlineStr">
+      <c r="S737" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18131,7 +18468,7 @@
       </c>
       <c r="F738" s="7" t="n"/>
       <c r="G738" s="8" t="n"/>
-      <c r="S738" t="inlineStr">
+      <c r="S738" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18151,7 +18488,7 @@
       </c>
       <c r="F739" s="7" t="n"/>
       <c r="G739" s="8" t="n"/>
-      <c r="S739" t="inlineStr">
+      <c r="S739" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18182,7 +18519,7 @@
         <f>IF(E740&gt;1,(1.732*D740*F740)/1000,(D740*F740)/1000)</f>
         <v/>
       </c>
-      <c r="S740" t="inlineStr">
+      <c r="S740" s="9" t="inlineStr">
         <is>
           <t>SELF CONTAINED</t>
         </is>
@@ -18206,6 +18543,7 @@
       </c>
       <c r="F741" s="7" t="n"/>
       <c r="G741" s="8" t="n"/>
+      <c r="S741" s="9" t="n"/>
     </row>
     <row r="742">
       <c r="A742" s="5" t="n">
@@ -18232,7 +18570,7 @@
         <f>IF(E742&gt;1,(1.732*D742*F742)/1000,(D742*F742)/1000)</f>
         <v/>
       </c>
-      <c r="S742" t="inlineStr">
+      <c r="S742" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -18268,7 +18606,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S743" t="inlineStr">
+      <c r="S743" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -18312,7 +18650,7 @@
       <c r="P744" t="n">
         <v>7900</v>
       </c>
-      <c r="S744" t="inlineStr">
+      <c r="S744" s="9" t="inlineStr">
         <is>
           <t>500LBS. AIR-COOLED</t>
         </is>
@@ -18342,7 +18680,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S745" t="inlineStr">
+      <c r="S745" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #933</t>
         </is>
@@ -18364,6 +18702,7 @@
       </c>
       <c r="F746" s="7" t="n"/>
       <c r="G746" s="8" t="n"/>
+      <c r="S746" s="9" t="n"/>
     </row>
     <row r="747">
       <c r="A747" s="5" t="n">
@@ -18398,7 +18737,7 @@
       <c r="J747" t="n">
         <v>5</v>
       </c>
-      <c r="S747" t="inlineStr">
+      <c r="S747" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -18437,7 +18776,7 @@
       <c r="J748" t="n">
         <v>5</v>
       </c>
-      <c r="S748" t="inlineStr">
+      <c r="S748" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -18476,7 +18815,7 @@
       <c r="J749" t="n">
         <v>5</v>
       </c>
-      <c r="S749" t="inlineStr">
+      <c r="S749" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -18498,6 +18837,7 @@
       </c>
       <c r="F750" s="7" t="n"/>
       <c r="G750" s="8" t="n"/>
+      <c r="S750" s="9" t="n"/>
     </row>
     <row r="751">
       <c r="A751" s="5" t="n">
@@ -18515,6 +18855,7 @@
       </c>
       <c r="F751" s="7" t="n"/>
       <c r="G751" s="8" t="n"/>
+      <c r="S751" s="9" t="n"/>
     </row>
     <row r="752">
       <c r="A752" s="5" t="n">
@@ -18530,7 +18871,7 @@
       </c>
       <c r="F752" s="7" t="n"/>
       <c r="G752" s="8" t="n"/>
-      <c r="S752" t="inlineStr">
+      <c r="S752" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18550,7 +18891,7 @@
       </c>
       <c r="F753" s="7" t="n"/>
       <c r="G753" s="8" t="n"/>
-      <c r="S753" t="inlineStr">
+      <c r="S753" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18570,7 +18911,7 @@
       </c>
       <c r="F754" s="7" t="n"/>
       <c r="G754" s="8" t="n"/>
-      <c r="S754" t="inlineStr">
+      <c r="S754" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18601,7 +18942,7 @@
         <f>IF(E755&gt;1,(1.732*D755*F755)/1000,(D755*F755)/1000)</f>
         <v/>
       </c>
-      <c r="S755" t="inlineStr">
+      <c r="S755" s="9" t="inlineStr">
         <is>
           <t>SELF CONTAINED</t>
         </is>
@@ -18625,6 +18966,7 @@
       </c>
       <c r="F756" s="7" t="n"/>
       <c r="G756" s="8" t="n"/>
+      <c r="S756" s="9" t="n"/>
     </row>
     <row r="757">
       <c r="A757" s="5" t="n">
@@ -18640,7 +18982,7 @@
       </c>
       <c r="F757" s="7" t="n"/>
       <c r="G757" s="8" t="n"/>
-      <c r="S757" t="inlineStr">
+      <c r="S757" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -18671,7 +19013,7 @@
         <f>IF(E758&gt;1,(1.732*D758*F758)/1000,(D758*F758)/1000)</f>
         <v/>
       </c>
-      <c r="S758" t="inlineStr">
+      <c r="S758" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18691,7 +19033,7 @@
       </c>
       <c r="F759" s="7" t="n"/>
       <c r="G759" s="8" t="n"/>
-      <c r="S759" t="inlineStr">
+      <c r="S759" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18711,7 +19053,7 @@
       </c>
       <c r="F760" s="7" t="n"/>
       <c r="G760" s="8" t="n"/>
-      <c r="S760" t="inlineStr">
+      <c r="S760" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -18733,6 +19075,7 @@
       </c>
       <c r="F761" s="7" t="n"/>
       <c r="G761" s="8" t="n"/>
+      <c r="S761" s="9" t="n"/>
     </row>
     <row r="762">
       <c r="A762" s="5" t="n">
@@ -18759,7 +19102,7 @@
         <f>IF(E762&gt;1,(1.732*D762*F762)/1000,(D762*F762)/1000)</f>
         <v/>
       </c>
-      <c r="S762" t="inlineStr">
+      <c r="S762" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18779,7 +19122,7 @@
       </c>
       <c r="F763" s="7" t="n"/>
       <c r="G763" s="8" t="n"/>
-      <c r="S763" t="inlineStr">
+      <c r="S763" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -18801,6 +19144,7 @@
       </c>
       <c r="F764" s="7" t="n"/>
       <c r="G764" s="8" t="n"/>
+      <c r="S764" s="9" t="n"/>
     </row>
     <row r="765">
       <c r="A765" s="5" t="n">
@@ -18818,6 +19162,7 @@
       </c>
       <c r="F765" s="7" t="n"/>
       <c r="G765" s="8" t="n"/>
+      <c r="S765" s="9" t="n"/>
     </row>
     <row r="766">
       <c r="A766" s="5" t="n">
@@ -18835,6 +19180,7 @@
       </c>
       <c r="F766" s="7" t="n"/>
       <c r="G766" s="8" t="n"/>
+      <c r="S766" s="9" t="n"/>
     </row>
     <row r="767">
       <c r="A767" s="5" t="n">
@@ -18850,7 +19196,7 @@
       </c>
       <c r="F767" s="7" t="n"/>
       <c r="G767" s="8" t="n"/>
-      <c r="S767" t="inlineStr">
+      <c r="S767" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -18870,7 +19216,7 @@
       </c>
       <c r="F768" s="7" t="n"/>
       <c r="G768" s="8" t="n"/>
-      <c r="S768" t="inlineStr">
+      <c r="S768" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -18901,6 +19247,7 @@
         <f>IF(E769&gt;1,(1.732*D769*F769)/1000,(D769*F769)/1000)</f>
         <v/>
       </c>
+      <c r="S769" s="9" t="n"/>
     </row>
     <row r="770">
       <c r="A770" s="5" t="n">
@@ -18918,6 +19265,7 @@
       </c>
       <c r="F770" s="7" t="n"/>
       <c r="G770" s="8" t="n"/>
+      <c r="S770" s="9" t="n"/>
     </row>
     <row r="771">
       <c r="A771" s="5" t="inlineStr">
@@ -18937,43 +19285,45 @@
       </c>
       <c r="F771" s="7" t="n"/>
       <c r="G771" s="8" t="n"/>
+      <c r="S771" s="9" t="n"/>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr"/>
     </row>
     <row r="773">
-      <c r="A773" s="9" t="inlineStr">
+      <c r="A773" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G773" s="10">
+      <c r="G773" s="11">
         <f>SUM(G7:G772)</f>
         <v/>
       </c>
-      <c r="J773" s="10">
+      <c r="J773" s="11">
         <f>SUM(J7:J772)</f>
         <v/>
       </c>
-      <c r="M773" s="10">
+      <c r="M773" s="11">
         <f>SUM(M7:M772)</f>
         <v/>
       </c>
-      <c r="N773" s="10">
+      <c r="N773" s="11">
         <f>SUM(N7:N772)</f>
         <v/>
       </c>
-      <c r="O773" s="10">
+      <c r="O773" s="11">
         <f>SUM(O7:O772)</f>
         <v/>
       </c>
-      <c r="P773" s="10">
+      <c r="P773" s="11">
         <f>SUM(P7:P772)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>